--- a/new_csv/filtered_2020top200concert.xlsx
+++ b/new_csv/filtered_2020top200concert.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesyoungman/Desktop/GTBC Project/project_2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesyoungman/Desktop/GTBC Project/project_2/new_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735019DA-15B6-3B46-84E5-2D05504AAC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF1E412-D588-BD4A-B8C5-D17C3E75A392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-1220" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="-720" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Table 1" sheetId="1" r:id="rId2"/>
+    <sheet name="pivot" sheetId="2" r:id="rId1"/>
+    <sheet name="top_20" sheetId="3" r:id="rId2"/>
+    <sheet name="rd" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="591">
   <si>
     <r>
       <rPr>
@@ -12123,6 +12124,29 @@
   </si>
   <si>
     <t>Sum of Gross</t>
+  </si>
+  <si>
+    <t>11/30/19
+2 shows</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>12/15/19
+2 shows</t>
+  </si>
+  <si>
+    <t>03/15/20
+2 shows</t>
+  </si>
+  <si>
+    <t>02/29/20
+03/01/20
+3 shows</t>
+  </si>
+  <si>
+    <t>Artist</t>
   </si>
 </sst>
 </file>
@@ -12134,7 +12158,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -12201,8 +12225,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12219,8 +12250,14 @@
         <fgColor rgb="FFB3A5AE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -12421,11 +12458,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -12681,6 +12727,23 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12701,11 +12764,155 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Chuck Youngman" refreshedDate="44389.977107523147" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="420" xr:uid="{31753F49-5661-3C45-B8B5-75C23B126665}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D1048576" sheet="Table 1"/>
+    <worksheetSource ref="A1:D1048576" sheet="rd"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2019-11-21T00:00:00" maxDate="2020-03-15T00:00:00"/>
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2019-11-21T00:00:00" maxDate="2020-03-15T00:00:00" count="143">
+        <d v="2020-01-16T00:00:00"/>
+        <s v="01/17-19_x000a_4 shows"/>
+        <d v="2020-02-28T00:00:00"/>
+        <s v="02/29/20_x000a_03/01/20_x000a_3 shows"/>
+        <d v="2020-02-14T00:00:00"/>
+        <s v="02/15,18_x000a_3 shows"/>
+        <d v="2020-02-07T00:00:00"/>
+        <s v="02/08,11_x000a_3 shows"/>
+        <d v="2020-01-29T00:00:00"/>
+        <s v="01/31,2/3_x000a_02/05,08-15_x000a_8 shows"/>
+        <d v="2020-03-14T00:00:00"/>
+        <s v="03/15/20_x000a_2 shows"/>
+        <d v="2020-02-29T00:00:00"/>
+        <s v="03/01/20_x000a_2 shows"/>
+        <d v="2020-02-05T00:00:00"/>
+        <s v="02/06-08_x000a_4 shows"/>
+        <d v="2019-12-05T00:00:00"/>
+        <s v="12/06-08_x000a_12/12-14_x000a_7 shows"/>
+        <d v="2019-12-28T00:00:00"/>
+        <s v="12/29-31_x000a_4 shows"/>
+        <d v="2020-03-06T00:00:00"/>
+        <s v="03/07/20_x000a_2 shows"/>
+        <d v="2019-12-06T00:00:00"/>
+        <s v="12/07/19_x000a_2 shows"/>
+        <d v="2019-11-22T00:00:00"/>
+        <s v="11/23/19_x000a_2 shows"/>
+        <s v="12/30-31_x000a_3 shows"/>
+        <d v="2020-02-27T00:00:00"/>
+        <s v="02/28-29_x000a_3 shows"/>
+        <d v="2020-01-25T00:00:00"/>
+        <s v="01/26/20_x000a_2 shows"/>
+        <d v="2019-12-18T00:00:00"/>
+        <s v="12/19/19_x000a_2 shows"/>
+        <d v="2020-01-17T00:00:00"/>
+        <s v="01/18/20_x000a_2 shows"/>
+        <d v="2019-12-13T00:00:00"/>
+        <s v="12/14/19_x000a_2 shows"/>
+        <s v="02/29/20_x000a_2 shows"/>
+        <d v="2019-12-09T00:00:00"/>
+        <s v="12/10/19_x000a_2 shows"/>
+        <d v="2020-03-07T00:00:00"/>
+        <s v="03/08/20_x000a_2 shows"/>
+        <s v="Date"/>
+        <m/>
+        <d v="2019-12-14T00:00:00"/>
+        <s v="12/15/19_x000a_2 shows"/>
+        <s v="12/07-08_x000a_3 shows"/>
+        <d v="2019-11-24T00:00:00"/>
+        <d v="2020-02-08T00:00:00"/>
+        <s v="02/08-09_x000a_3 shows"/>
+        <d v="2019-11-25T00:00:00"/>
+        <d v="2020-01-24T00:00:00"/>
+        <d v="2020-01-31T00:00:00"/>
+        <d v="2020-02-03T00:00:00"/>
+        <d v="2020-03-10T00:00:00"/>
+        <d v="2019-12-07T00:00:00"/>
+        <d v="2019-11-29T00:00:00"/>
+        <s v="11/30/19_x000a_2 shows"/>
+        <d v="2020-01-11T00:00:00"/>
+        <d v="2019-12-12T00:00:00"/>
+        <d v="2020-01-15T00:00:00"/>
+        <d v="2020-02-21T00:00:00"/>
+        <s v="02/22-23_x000a_3 shows"/>
+        <d v="2020-02-24T00:00:00"/>
+        <d v="2019-12-11T00:00:00"/>
+        <d v="2020-02-11T00:00:00"/>
+        <d v="2019-11-23T00:00:00"/>
+        <d v="2019-12-08T00:00:00"/>
+        <d v="2020-02-01T00:00:00"/>
+        <d v="2019-12-20T00:00:00"/>
+        <s v="12/21/19_x000a_2 shows"/>
+        <d v="2020-01-13T00:00:00"/>
+        <d v="2020-02-09T00:00:00"/>
+        <d v="2020-02-15T00:00:00"/>
+        <d v="2020-01-30T00:00:00"/>
+        <d v="2020-01-21T00:00:00"/>
+        <d v="2019-11-28T00:00:00"/>
+        <s v="11/29/19_x000a_2 shows"/>
+        <d v="2020-02-13T00:00:00"/>
+        <s v="11/24,26_x000a_11/27,29-30_x000a_6 shows"/>
+        <d v="2019-11-21T00:00:00"/>
+        <s v="2 shows"/>
+        <s v="02/01/20_x000a_2 shows"/>
+        <d v="2020-03-01T00:00:00"/>
+        <d v="2019-12-27T00:00:00"/>
+        <d v="2020-02-19T00:00:00"/>
+        <d v="2019-12-15T00:00:00"/>
+        <s v="02/22/20_x000a_2 shows"/>
+        <d v="2019-12-17T00:00:00"/>
+        <d v="2020-03-03T00:00:00"/>
+        <s v="03/04/20_x000a_2 shows"/>
+        <d v="2020-02-22T00:00:00"/>
+        <s v="02/15/20_x000a_2 shows"/>
+        <s v="02/08/20_x000a_4 shows"/>
+        <d v="2019-12-21T00:00:00"/>
+        <d v="2020-01-10T00:00:00"/>
+        <s v="01/11/20_x000a_4 shows"/>
+        <d v="2019-12-01T00:00:00"/>
+        <d v="2020-01-22T00:00:00"/>
+        <d v="2019-12-23T00:00:00"/>
+        <d v="2019-11-30T00:00:00"/>
+        <d v="2019-12-30T00:00:00"/>
+        <s v="12/31/19_x000a_2 shows"/>
+        <d v="2020-02-23T00:00:00"/>
+        <s v="02/24/20_x000a_2 shows"/>
+        <d v="2019-12-03T00:00:00"/>
+        <s v="12/04/19_x000a_2 shows"/>
+        <s v="12/28-29_x000a_4 shows"/>
+        <s v="12/15,17-19_x000a_12/20-21_x000a_6 shows"/>
+        <d v="2020-02-18T00:00:00"/>
+        <s v="02/19/20_x000a_2 shows"/>
+        <d v="2020-02-20T00:00:00"/>
+        <s v="02/21-22_x000a_3 shows"/>
+        <s v="12/28/19_x000a_2 shows"/>
+        <s v="12/18/19_x000a_2 shows"/>
+        <s v="12/22/19_x000a_2 shows"/>
+        <s v="03/05/20_x000a_2 shows"/>
+        <s v="12/01,04_x000a_3 shows"/>
+        <s v="03/02/20_x000a_2 shows"/>
+        <s v="11/24,26_x000a_3 shows"/>
+        <s v="02/07-08_x000a_3 shows"/>
+        <s v="12/28/19_x000a_12/30-31_x000a_4 shows"/>
+        <s v="12/08/19_x000a_12/10-11_x000a_4 shows"/>
+        <d v="2020-02-26T00:00:00"/>
+        <d v="2019-12-31T00:00:00"/>
+        <d v="2020-01-09T00:00:00"/>
+        <d v="2020-02-04T00:00:00"/>
+        <d v="2020-01-08T00:00:00"/>
+        <d v="2020-03-04T00:00:00"/>
+        <d v="2020-03-05T00:00:00"/>
+        <d v="2020-03-12T00:00:00"/>
+        <s v="03/11/20_x000a_2 shows"/>
+        <d v="2019-12-19T00:00:00"/>
+        <d v="2020-03-09T00:00:00"/>
+        <d v="2020-02-16T00:00:00"/>
+        <d v="2020-02-12T00:00:00"/>
+        <d v="2019-12-22T00:00:00"/>
+        <s v="02/14/20_x000a_2 shows"/>
+        <d v="2019-11-27T00:00:00"/>
+        <s v="11/29-30_x000a_3 shows"/>
+        <s v="12/13-14_x000a_3 shows"/>
+        <s v="02/25/20_x000a_2 shows"/>
+        <s v="11/22/19_x000a_4 shows"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Artist_x000a_Facility/Promoter                                   Support" numFmtId="0">
       <sharedItems containsBlank="1" count="237">
@@ -12966,2521 +13173,2521 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="420">
   <r>
-    <d v="2020-01-16T00:00:00"/>
+    <x v="0"/>
     <x v="0"/>
     <n v="6127"/>
     <n v="18690826"/>
   </r>
   <r>
-    <s v="01/17-19_x000a_4 shows"/>
+    <x v="1"/>
     <x v="1"/>
     <s v="1,531_x000a_100%_x000a_3,849 - 60,000"/>
     <s v="(3513,52Pesos_x000a_4,229)"/>
   </r>
   <r>
-    <d v="2020-02-28T00:00:00"/>
+    <x v="2"/>
     <x v="2"/>
     <n v="296982"/>
     <n v="12486675"/>
   </r>
   <r>
-    <s v="02/29/20_x000a_03/01/20_x000a_3 shows"/>
+    <x v="3"/>
     <x v="3"/>
     <s v="118,414_x000a_83%_x000a_600.00 - 4,000.00"/>
     <s v="(2325,68Pesos_x000a_6,583)"/>
   </r>
   <r>
-    <d v="2020-02-14T00:00:00"/>
+    <x v="4"/>
     <x v="4"/>
     <n v="41058"/>
     <n v="10707033"/>
   </r>
   <r>
-    <s v="02/15,18_x000a_3 shows"/>
+    <x v="5"/>
     <x v="5"/>
     <s v="13,686_x000a_100%_x000a_129.00 - 750.00"/>
     <n v="3"/>
   </r>
   <r>
-    <d v="2020-02-07T00:00:00"/>
+    <x v="6"/>
     <x v="4"/>
     <n v="39375"/>
     <n v="8871615"/>
   </r>
   <r>
-    <s v="02/08,11_x000a_3 shows"/>
+    <x v="7"/>
     <x v="6"/>
     <s v="13,125_x000a_100%_x000a_132.00 - 753.00"/>
     <n v="4"/>
   </r>
   <r>
-    <d v="2020-01-29T00:00:00"/>
+    <x v="8"/>
     <x v="7"/>
     <n v="37094"/>
     <n v="7953838"/>
   </r>
   <r>
-    <s v="01/31,2/3_x000a_02/05,08-15_x000a_8 shows"/>
+    <x v="9"/>
     <x v="8"/>
     <s v="4,700_x000a_98%_x000a_75.00 - 895.00"/>
     <n v="5"/>
   </r>
   <r>
-    <d v="2020-03-14T00:00:00"/>
+    <x v="10"/>
     <x v="9"/>
     <n v="153892"/>
     <n v="7747979"/>
   </r>
   <r>
-    <s v="03/15/20_x000a_2 shows"/>
+    <x v="11"/>
     <x v="10"/>
     <s v="85,366_x000a_90%_x000a_800.00 - 3,500.00"/>
     <s v="(1562,33Pesos_x000a_9,351)"/>
   </r>
   <r>
-    <d v="2020-02-29T00:00:00"/>
+    <x v="12"/>
     <x v="4"/>
     <n v="25650"/>
     <n v="7453138"/>
   </r>
   <r>
-    <s v="03/01/20_x000a_2 shows"/>
+    <x v="13"/>
     <x v="11"/>
     <s v="12,825_x000a_100%_x000a_123.50 - 774.50"/>
     <n v="7"/>
   </r>
   <r>
-    <d v="2020-02-05T00:00:00"/>
+    <x v="14"/>
     <x v="12"/>
     <n v="52162"/>
     <n v="7131966"/>
   </r>
   <r>
-    <s v="02/06-08_x000a_4 shows"/>
+    <x v="15"/>
     <x v="13"/>
     <s v="13,040_x000a_100%_x000a_49.50 - 509.50"/>
     <n v="8"/>
   </r>
   <r>
-    <d v="2019-12-05T00:00:00"/>
+    <x v="16"/>
     <x v="14"/>
     <n v="95446"/>
     <n v="7045175"/>
   </r>
   <r>
-    <s v="12/06-08_x000a_12/12-14_x000a_7 shows"/>
+    <x v="17"/>
     <x v="15"/>
     <s v="13,698_x000a_99%_x000a_25.00 - 300.00"/>
     <n v="9"/>
   </r>
   <r>
-    <d v="2019-12-28T00:00:00"/>
+    <x v="18"/>
     <x v="16"/>
     <n v="76079"/>
     <n v="6712920"/>
   </r>
   <r>
-    <s v="12/29-31_x000a_4 shows"/>
+    <x v="19"/>
     <x v="5"/>
     <s v="19,019_x000a_100%_x000a_90.00 - 110.00"/>
     <n v="10"/>
   </r>
   <r>
-    <d v="2020-03-06T00:00:00"/>
+    <x v="20"/>
     <x v="4"/>
     <n v="23549"/>
     <n v="6520867"/>
   </r>
   <r>
-    <s v="03/07/20_x000a_2 shows"/>
+    <x v="21"/>
     <x v="17"/>
     <s v="11,975_x000a_98%_x000a_129.00 - 750.00"/>
     <n v="11"/>
   </r>
   <r>
-    <d v="2019-12-06T00:00:00"/>
+    <x v="22"/>
     <x v="18"/>
     <n v="35668"/>
     <n v="6154739"/>
   </r>
   <r>
-    <s v="12/07/19_x000a_2 shows"/>
+    <x v="23"/>
     <x v="19"/>
     <s v="18,258_x000a_97%_x000a_50.00 - 499.00"/>
     <n v="12"/>
   </r>
   <r>
-    <d v="2019-11-22T00:00:00"/>
+    <x v="24"/>
     <x v="20"/>
     <n v="24953"/>
     <n v="5794152"/>
   </r>
   <r>
-    <s v="11/23/19_x000a_2 shows"/>
+    <x v="25"/>
     <x v="21"/>
     <s v="12,806_x000a_97%_x000a_19.82 - 250.00"/>
     <n v="13"/>
   </r>
   <r>
-    <d v="2019-12-28T00:00:00"/>
+    <x v="18"/>
     <x v="22"/>
     <n v="16340"/>
     <n v="5513651"/>
   </r>
   <r>
-    <s v="12/30-31_x000a_3 shows"/>
+    <x v="26"/>
     <x v="8"/>
     <s v="5,446_x000a_100%_x000a_89.00 - 550.00"/>
     <n v="14"/>
   </r>
   <r>
-    <d v="2020-02-27T00:00:00"/>
+    <x v="27"/>
     <x v="23"/>
     <n v="40442"/>
     <n v="5499944"/>
   </r>
   <r>
-    <s v="02/28-29_x000a_3 shows"/>
+    <x v="28"/>
     <x v="24"/>
     <s v="13,480_x000a_100%_x000a_49.50 - 500.00"/>
     <n v="15"/>
   </r>
   <r>
-    <d v="2020-01-25T00:00:00"/>
+    <x v="29"/>
     <x v="25"/>
     <n v="35778"/>
     <n v="5463566"/>
   </r>
   <r>
-    <s v="01/26/20_x000a_2 shows"/>
+    <x v="30"/>
     <x v="26"/>
     <s v="17,889_x000a_100%_x000a_73.00 - 247.00"/>
     <n v="16"/>
   </r>
   <r>
-    <d v="2019-12-18T00:00:00"/>
+    <x v="31"/>
     <x v="27"/>
     <n v="28623"/>
     <n v="5385074"/>
   </r>
   <r>
-    <s v="12/19/19_x000a_2 shows"/>
+    <x v="32"/>
     <x v="28"/>
     <s v="14,311_x000a_100%_x000a_86.00 - 401.00"/>
     <n v="17"/>
   </r>
   <r>
-    <d v="2020-01-17T00:00:00"/>
+    <x v="33"/>
     <x v="29"/>
     <n v="24763"/>
     <n v="5222838"/>
   </r>
   <r>
-    <s v="01/18/20_x000a_2 shows"/>
+    <x v="34"/>
     <x v="30"/>
     <s v="12,381_x000a_100%_x000a_64.00 - 252.00"/>
     <n v="18"/>
   </r>
   <r>
-    <d v="2019-12-13T00:00:00"/>
+    <x v="35"/>
     <x v="29"/>
     <n v="24661"/>
     <n v="5180061"/>
   </r>
   <r>
-    <s v="12/14/19_x000a_2 shows"/>
+    <x v="36"/>
     <x v="31"/>
     <s v="12,330_x000a_100%_x000a_77.00 - 246.00"/>
     <n v="19"/>
   </r>
   <r>
-    <d v="2020-02-28T00:00:00"/>
+    <x v="2"/>
     <x v="29"/>
     <n v="25577"/>
     <n v="5115713"/>
   </r>
   <r>
-    <s v="02/29/20_x000a_2 shows"/>
+    <x v="37"/>
     <x v="32"/>
     <s v="13,096_x000a_97%_x000a_62.00 - 240.00"/>
     <n v="20"/>
   </r>
   <r>
-    <d v="2019-12-09T00:00:00"/>
+    <x v="38"/>
     <x v="29"/>
     <n v="26831"/>
     <n v="4852388"/>
   </r>
   <r>
-    <s v="12/10/19_x000a_2 shows"/>
+    <x v="39"/>
     <x v="33"/>
     <s v="13,415_x000a_100%_x000a_72.00 - 239.00"/>
     <s v="2( C1anadian_x000a_6,445,530)"/>
   </r>
   <r>
-    <d v="2020-03-07T00:00:00"/>
+    <x v="40"/>
     <x v="29"/>
     <n v="23629"/>
     <n v="4330802"/>
   </r>
   <r>
-    <s v="03/08/20_x000a_2 shows"/>
+    <x v="41"/>
     <x v="34"/>
     <s v="11,814_x000a_100%_x000a_77.00 - 223.00"/>
     <n v="22"/>
   </r>
   <r>
-    <s v="Date"/>
+    <x v="42"/>
     <x v="35"/>
     <m/>
     <s v="Gross"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="36"/>
     <m/>
     <m/>
   </r>
   <r>
-    <d v="2019-12-14T00:00:00"/>
+    <x v="44"/>
     <x v="37"/>
     <n v="29568"/>
     <n v="2809871"/>
   </r>
   <r>
-    <s v="12/15/19_x000a_2 shows"/>
+    <x v="45"/>
     <x v="38"/>
     <s v="14,784_x000a_100%_x000a_29.95 - 499.95"/>
     <n v="45"/>
   </r>
   <r>
-    <d v="2019-12-06T00:00:00"/>
+    <x v="22"/>
     <x v="16"/>
     <n v="36364"/>
     <n v="2788798"/>
   </r>
   <r>
-    <s v="12/07-08_x000a_3 shows"/>
+    <x v="46"/>
     <x v="39"/>
     <s v="12,360_x000a_98%_x000a_75.00"/>
     <n v="46"/>
   </r>
   <r>
-    <d v="2019-11-24T00:00:00"/>
+    <x v="47"/>
     <x v="40"/>
     <n v="13756"/>
     <n v="2764402"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="41"/>
     <s v="13,756_x000a_100%_x000a_34.95 - 279.95"/>
     <n v="47"/>
   </r>
   <r>
-    <d v="2020-02-08T00:00:00"/>
+    <x v="48"/>
     <x v="42"/>
     <n v="14750"/>
     <n v="2737645"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="43"/>
     <s v="14,750_x000a_100%_x000a_49.50 - 299.50"/>
     <n v="48"/>
   </r>
   <r>
-    <d v="2020-02-07T00:00:00"/>
+    <x v="6"/>
     <x v="44"/>
     <n v="31927"/>
     <n v="2725143"/>
   </r>
   <r>
-    <s v="02/08-09_x000a_3 shows"/>
+    <x v="49"/>
     <x v="45"/>
     <s v="11,361_x000a_93%_x000a_20.00 - 650.00"/>
     <n v="49"/>
   </r>
   <r>
-    <d v="2019-11-25T00:00:00"/>
+    <x v="50"/>
     <x v="40"/>
     <n v="13112"/>
     <n v="2707560"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="46"/>
     <s v="13,112_x000a_100%_x000a_31.95 - 289.95"/>
     <n v="50"/>
   </r>
   <r>
-    <d v="2020-01-24T00:00:00"/>
+    <x v="51"/>
     <x v="25"/>
     <n v="14442"/>
     <n v="2697988"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="47"/>
     <s v="14,442_x000a_100%_x000a_79.75 - 249.75"/>
     <n v="51"/>
   </r>
   <r>
-    <d v="2020-01-31T00:00:00"/>
+    <x v="52"/>
     <x v="48"/>
     <n v="11193"/>
     <n v="2672325"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="49"/>
     <s v="11,193_x000a_100%_x000a_240.00"/>
     <n v="52"/>
   </r>
   <r>
-    <d v="2019-12-05T00:00:00"/>
+    <x v="16"/>
     <x v="27"/>
     <n v="13225"/>
     <n v="2667143"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="50"/>
     <s v="13,225_x000a_100%_x000a_89.00 - 409.00"/>
     <n v="53"/>
   </r>
   <r>
-    <d v="2020-02-03T00:00:00"/>
+    <x v="53"/>
     <x v="29"/>
     <n v="12834"/>
     <n v="2657817"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="51"/>
     <s v="12,834_x000a_100%_x000a_90.00 - 237.00"/>
     <n v="54"/>
   </r>
   <r>
-    <d v="2020-03-10T00:00:00"/>
+    <x v="54"/>
     <x v="52"/>
     <n v="17784"/>
     <n v="2636181"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="5"/>
     <s v="17,784_x000a_100%_x000a_50.00 - 249.99"/>
     <n v="55"/>
   </r>
   <r>
-    <d v="2019-12-07T00:00:00"/>
+    <x v="55"/>
     <x v="27"/>
     <n v="12241"/>
     <n v="2593407"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="53"/>
     <s v="12,510_x000a_97%_x000a_82.00 - 418.25"/>
     <n v="56"/>
   </r>
   <r>
-    <s v="Date"/>
+    <x v="42"/>
     <x v="35"/>
     <s v="Tickets Sold Capacity"/>
     <s v="Gross"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="36"/>
     <m/>
     <m/>
   </r>
   <r>
-    <d v="2019-11-29T00:00:00"/>
+    <x v="56"/>
     <x v="16"/>
     <n v="25163"/>
     <n v="2330166"/>
   </r>
   <r>
-    <s v="11/30/19_x000a_2 shows"/>
+    <x v="57"/>
     <x v="54"/>
     <s v="12,582_x000a_100%_x000a_80.00 - 95.00"/>
     <n v="69"/>
   </r>
   <r>
-    <d v="2020-01-11T00:00:00"/>
+    <x v="58"/>
     <x v="29"/>
     <n v="11212"/>
     <n v="2323672"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="55"/>
     <s v="11,212_x000a_100%_x000a_62.50 - 252.50"/>
     <n v="70"/>
   </r>
   <r>
-    <d v="2019-12-06T00:00:00"/>
+    <x v="22"/>
     <x v="56"/>
     <n v="16725"/>
     <n v="2296456"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="57"/>
     <s v="16,725_x000a_100%_x000a_42.00 - 757.00"/>
     <n v="71"/>
   </r>
   <r>
-    <d v="2020-02-07T00:00:00"/>
+    <x v="6"/>
     <x v="29"/>
     <n v="12833"/>
     <n v="2278207"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="58"/>
     <s v="12,833_x000a_100%_x000a_66.00 - 216.00"/>
     <n v="72"/>
   </r>
   <r>
-    <d v="2019-12-12T00:00:00"/>
+    <x v="59"/>
     <x v="27"/>
     <n v="12201"/>
     <n v="2265574"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="59"/>
     <s v="12,569_x000a_97%_x000a_80.00 - 378.00"/>
     <n v="73"/>
   </r>
   <r>
-    <d v="2020-01-15T00:00:00"/>
+    <x v="60"/>
     <x v="29"/>
     <n v="12749"/>
     <n v="2254145"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="60"/>
     <s v="12,749_x000a_100%_x000a_55.00 - 225.00"/>
     <n v="74"/>
   </r>
   <r>
-    <d v="2020-02-21T00:00:00"/>
+    <x v="61"/>
     <x v="61"/>
     <n v="14862"/>
     <n v="2225439"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="62"/>
     <s v="14,862_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="75"/>
   </r>
   <r>
-    <d v="2020-02-21T00:00:00"/>
+    <x v="61"/>
     <x v="63"/>
     <n v="27857"/>
     <n v="2184540"/>
   </r>
   <r>
-    <s v="02/22-23_x000a_3 shows"/>
+    <x v="62"/>
     <x v="64"/>
     <s v="9,345_x000a_99%_x000a_400.00 - 4,000.00"/>
     <s v="7(41,623Pesos_x000a_3,300)"/>
   </r>
   <r>
-    <d v="2020-02-24T00:00:00"/>
+    <x v="63"/>
     <x v="61"/>
     <n v="14283"/>
     <n v="2173510"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="65"/>
     <s v="14,283_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="77"/>
   </r>
   <r>
-    <d v="2019-12-11T00:00:00"/>
+    <x v="64"/>
     <x v="27"/>
     <n v="14137"/>
     <n v="2159747"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="66"/>
     <s v="15,216_x000a_92%_x000a_81.00 - 361.00"/>
     <n v="78"/>
   </r>
   <r>
-    <d v="2020-02-11T00:00:00"/>
+    <x v="65"/>
     <x v="29"/>
     <n v="12436"/>
     <n v="2150963"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="67"/>
     <s v="12,436_x000a_100%_x000a_51.00 - 218.00"/>
     <n v="79"/>
   </r>
   <r>
-    <d v="2019-11-29T00:00:00"/>
+    <x v="56"/>
     <x v="68"/>
     <n v="23029"/>
     <n v="2150047"/>
   </r>
   <r>
-    <s v="11/30/19_x000a_2 shows"/>
+    <x v="57"/>
     <x v="69"/>
     <s v="11,514_x000a_100%_x000a_49.50 - 149.50"/>
     <n v="80"/>
   </r>
   <r>
-    <d v="2019-11-23T00:00:00"/>
+    <x v="66"/>
     <x v="70"/>
     <n v="15167"/>
     <n v="2146529"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="71"/>
     <s v="15,167_x000a_100%_x000a_33.95 - 545.00"/>
     <n v="81"/>
   </r>
   <r>
-    <d v="2019-11-22T00:00:00"/>
+    <x v="24"/>
     <x v="72"/>
     <n v="25915"/>
     <n v="2138005"/>
   </r>
   <r>
-    <s v="11/23/19_x000a_2 shows"/>
+    <x v="25"/>
     <x v="73"/>
     <s v="12,958_x000a_100%_x000a_15.00 - 149.00"/>
     <n v="82"/>
   </r>
   <r>
-    <d v="2019-12-08T00:00:00"/>
+    <x v="67"/>
     <x v="27"/>
     <n v="10459"/>
     <n v="2135995"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="74"/>
     <s v="10,878_x000a_96%_x000a_85.00 - 365.00"/>
     <n v="83"/>
   </r>
   <r>
-    <d v="2019-12-06T00:00:00"/>
+    <x v="22"/>
     <x v="75"/>
     <n v="15883"/>
     <n v="2135250"/>
   </r>
   <r>
-    <s v="12/07-08_x000a_3 shows"/>
+    <x v="46"/>
     <x v="76"/>
     <s v="5,926_x000a_89%_x000a_39.00 - 225.00"/>
     <n v="84"/>
   </r>
   <r>
-    <d v="2020-02-01T00:00:00"/>
+    <x v="68"/>
     <x v="29"/>
     <n v="11569"/>
     <n v="2127052"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="77"/>
     <s v="11,569_x000a_100%_x000a_60.00 - 250.00"/>
     <n v="85"/>
   </r>
   <r>
-    <d v="2019-12-20T00:00:00"/>
+    <x v="69"/>
     <x v="78"/>
     <n v="28861"/>
     <n v="2123717"/>
   </r>
   <r>
-    <s v="12/21/19_x000a_2 shows"/>
+    <x v="70"/>
     <x v="79"/>
     <s v="14,431_x000a_100%_x000a_450.00 - 3,000.00"/>
     <s v="8(41,568Pesos_x000a_4,426)"/>
   </r>
   <r>
-    <d v="2020-01-13T00:00:00"/>
+    <x v="71"/>
     <x v="29"/>
     <n v="13023"/>
     <n v="2103662"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="80"/>
     <s v="13,023_x000a_100%_x000a_58.00 - 198.00"/>
     <n v="87"/>
   </r>
   <r>
-    <d v="2020-02-09T00:00:00"/>
+    <x v="72"/>
     <x v="61"/>
     <n v="14030"/>
     <n v="2093697"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="81"/>
     <s v="14,030_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="88"/>
   </r>
   <r>
-    <d v="2020-02-15T00:00:00"/>
+    <x v="73"/>
     <x v="42"/>
     <n v="12641"/>
     <n v="2084882"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="11"/>
     <s v="12,641_x000a_100%_x000a_44.00 - 294.00"/>
     <n v="89"/>
   </r>
   <r>
-    <d v="2020-01-30T00:00:00"/>
+    <x v="74"/>
     <x v="29"/>
     <n v="13643"/>
     <n v="2021746"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="82"/>
     <s v="13,645_x000a_99%_x000a_55.50 - 196.00"/>
     <n v="90"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="36"/>
     <m/>
     <m/>
   </r>
   <r>
-    <s v="Date"/>
+    <x v="42"/>
     <x v="35"/>
     <m/>
     <s v="Gross"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="36"/>
     <m/>
     <m/>
   </r>
   <r>
-    <d v="2020-01-21T00:00:00"/>
+    <x v="75"/>
     <x v="29"/>
     <n v="13458"/>
     <n v="1785169"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="83"/>
     <s v="13,978_x000a_96%_x000a_49.50 - 300.00"/>
     <n v="113"/>
   </r>
   <r>
-    <d v="2019-11-28T00:00:00"/>
+    <x v="76"/>
     <x v="84"/>
     <n v="44000"/>
     <n v="1776895"/>
   </r>
   <r>
-    <s v="11/29/19_x000a_2 shows"/>
+    <x v="77"/>
     <x v="85"/>
     <s v="22,000_x000a_100%_x000a_350.00 - 2950.00"/>
     <s v="1(134,034Pesos_x000a_3,612)"/>
   </r>
   <r>
-    <d v="2020-01-25T00:00:00"/>
+    <x v="29"/>
     <x v="86"/>
     <n v="13673"/>
     <n v="1769661"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="87"/>
     <s v="15,377_x000a_88%_x000a_40.43 - 577.25"/>
     <n v="115"/>
   </r>
   <r>
-    <d v="2020-02-13T00:00:00"/>
+    <x v="78"/>
     <x v="27"/>
     <n v="9577"/>
     <n v="1766289"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="88"/>
     <s v="10,883_x000a_88%_x000a_85.00 - 365.00"/>
     <n v="116"/>
   </r>
   <r>
-    <d v="2019-11-23T00:00:00"/>
+    <x v="66"/>
     <x v="89"/>
     <n v="16215"/>
     <n v="1764616"/>
   </r>
   <r>
-    <s v="11/24,26_x000a_11/27,29-30_x000a_6 shows"/>
+    <x v="79"/>
     <x v="90"/>
     <s v="2,749_x000a_98%_x000a_59.50 - 169.50"/>
     <n v="117"/>
   </r>
   <r>
-    <d v="2019-12-05T00:00:00"/>
+    <x v="16"/>
     <x v="29"/>
     <n v="12462"/>
     <n v="1746480"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="91"/>
     <s v="12,462_x000a_100%_x000a_51.00 - 230.00"/>
     <n v="118"/>
   </r>
   <r>
-    <d v="2019-11-21T00:00:00"/>
+    <x v="80"/>
     <x v="92"/>
     <n v="13115"/>
     <n v="1739513"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="93"/>
     <s v="13,115_x000a_100%_x000a_29.95 - 500.00"/>
     <n v="119"/>
   </r>
   <r>
-    <d v="2019-11-29T00:00:00"/>
+    <x v="56"/>
     <x v="94"/>
     <n v="17299"/>
     <n v="1710269"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="95"/>
     <s v="17,299_x000a_100%_x000a_49.00 - 169.00"/>
     <n v="120"/>
   </r>
   <r>
-    <d v="2020-01-17T00:00:00"/>
+    <x v="33"/>
     <x v="96"/>
     <n v="15024"/>
     <n v="1709900"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="97"/>
     <s v="15,024_x000a_100%_x000a_55.00 - 150.00"/>
     <n v="121"/>
   </r>
   <r>
-    <d v="2020-03-06T00:00:00"/>
+    <x v="20"/>
     <x v="61"/>
     <n v="12737"/>
     <n v="1699381"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="98"/>
     <s v="12,737_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="122"/>
   </r>
   <r>
-    <d v="2019-12-28T00:00:00"/>
+    <x v="18"/>
     <x v="99"/>
     <n v="23921"/>
     <n v="1694235"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="100"/>
     <s v="14,325_x000a_83%_x000a_49.00 - 89.00"/>
     <n v="123"/>
   </r>
   <r>
-    <d v="2019-12-06T00:00:00"/>
+    <x v="22"/>
     <x v="94"/>
     <n v="16460"/>
     <n v="1693862"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="101"/>
     <s v="16,460_x000a_100%_x000a_51.00 - 181.00"/>
     <n v="124"/>
   </r>
   <r>
-    <d v="2019-12-13T00:00:00"/>
+    <x v="35"/>
     <x v="40"/>
     <n v="12225"/>
     <n v="1686682"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="102"/>
     <s v="12,225_x000a_100%_x000a_55.95 - 275.95"/>
     <n v="125"/>
   </r>
   <r>
-    <d v="2019-12-06T00:00:00"/>
+    <x v="22"/>
     <x v="37"/>
     <n v="15026"/>
     <n v="1683174"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="103"/>
     <s v="15,026_x000a_100%_x000a_29.95 - 523.50"/>
     <n v="126"/>
   </r>
   <r>
-    <d v="2019-11-29T00:00:00"/>
+    <x v="56"/>
     <x v="37"/>
     <n v="13215"/>
     <n v="1662047"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="104"/>
     <s v="13,215_x000a_100%_x000a_29.95 - 519.95"/>
     <n v="127"/>
   </r>
   <r>
-    <d v="2020-01-31T00:00:00"/>
+    <x v="52"/>
     <x v="105"/>
     <n v="7528"/>
     <n v="1656701"/>
   </r>
   <r>
-    <s v="02/01/20_x000a_2 shows"/>
+    <x v="82"/>
     <x v="106"/>
     <s v="4,172_x000a_90%_x000a_55.00 - 229.00"/>
     <n v="128"/>
   </r>
   <r>
-    <d v="2020-03-01T00:00:00"/>
+    <x v="83"/>
     <x v="61"/>
     <n v="14210"/>
     <n v="1656401"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="107"/>
     <s v="14,210_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="129"/>
   </r>
   <r>
-    <d v="2019-12-27T00:00:00"/>
+    <x v="84"/>
     <x v="99"/>
     <n v="23782"/>
     <n v="1654942"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="108"/>
     <s v="12,552_x000a_94%_x000a_49.50 - 79.50"/>
     <n v="130"/>
   </r>
   <r>
-    <d v="2020-02-19T00:00:00"/>
+    <x v="85"/>
     <x v="109"/>
     <n v="11374"/>
     <n v="1654145"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="110"/>
     <s v="11,374_x000a_100%_x000a_65.50 - 535.50"/>
     <n v="131"/>
   </r>
   <r>
-    <d v="2019-12-15T00:00:00"/>
+    <x v="86"/>
     <x v="99"/>
     <n v="25036"/>
     <n v="1652061"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="111"/>
     <s v="13,205_x000a_94%_x000a_55.75 - 75.75"/>
     <n v="132"/>
   </r>
   <r>
-    <d v="2020-02-21T00:00:00"/>
+    <x v="61"/>
     <x v="112"/>
     <n v="24239"/>
     <n v="1651922"/>
   </r>
   <r>
-    <s v="02/22/20_x000a_2 shows"/>
+    <x v="87"/>
     <x v="113"/>
     <s v="12,120_x000a_100%_x000a_39.00 - 89.00"/>
     <n v="133"/>
   </r>
   <r>
-    <d v="2019-12-09T00:00:00"/>
+    <x v="38"/>
     <x v="40"/>
     <n v="13135"/>
     <n v="1643999"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="11"/>
     <s v="13,135_x000a_100%_x000a_49.95 - 499.95"/>
     <n v="134"/>
   </r>
   <r>
-    <s v="Date"/>
+    <x v="42"/>
     <x v="35"/>
     <s v="Tickets Sold Capacity"/>
     <s v="Gross"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="36"/>
     <m/>
     <m/>
   </r>
   <r>
-    <d v="2019-12-17T00:00:00"/>
+    <x v="88"/>
     <x v="92"/>
     <n v="12666"/>
     <n v="1535735"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="114"/>
     <s v="12,666_x000a_100%_x000a_29.95 - 500.00"/>
     <n v="157"/>
   </r>
   <r>
-    <d v="2020-03-03T00:00:00"/>
+    <x v="89"/>
     <x v="112"/>
     <n v="26078"/>
     <n v="1523451"/>
   </r>
   <r>
-    <s v="03/04/20_x000a_2 shows"/>
+    <x v="90"/>
     <x v="115"/>
     <s v="13,039_x000a_100%_x000a_49.00 - 119.00"/>
     <s v="15( Can8adian_x000a_2,042,023)"/>
   </r>
   <r>
-    <d v="2020-02-22T00:00:00"/>
+    <x v="91"/>
     <x v="61"/>
     <n v="8767"/>
     <n v="1522300"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="116"/>
     <s v="8,767_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="159"/>
   </r>
   <r>
-    <d v="2020-02-13T00:00:00"/>
+    <x v="78"/>
     <x v="117"/>
     <n v="25085"/>
     <n v="1519858"/>
   </r>
   <r>
-    <s v="02/15/20_x000a_2 shows"/>
+    <x v="92"/>
     <x v="118"/>
     <s v="12,583_x000a_99%_x000a_39.50 - 209.50"/>
     <n v="160"/>
   </r>
   <r>
-    <d v="2019-12-15T00:00:00"/>
+    <x v="86"/>
     <x v="119"/>
     <n v="11640"/>
     <n v="1518495"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="17"/>
     <s v="11,640_x000a_100%_x000a_29.95 - 500.00"/>
     <n v="161"/>
   </r>
   <r>
-    <d v="2019-11-29T00:00:00"/>
+    <x v="56"/>
     <x v="120"/>
     <n v="12699"/>
     <n v="1513634"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="121"/>
     <s v="13,523_x000a_93%_x000a_179.00 - 369.00"/>
     <n v="162"/>
   </r>
   <r>
-    <d v="2020-02-07T00:00:00"/>
+    <x v="6"/>
     <x v="122"/>
     <n v="11156"/>
     <n v="1510417"/>
   </r>
   <r>
-    <s v="02/08/20_x000a_4 shows"/>
+    <x v="93"/>
     <x v="123"/>
     <s v="2,789_x000a_100%_x000a_87.50 - 195.00"/>
     <n v="163"/>
   </r>
   <r>
-    <d v="2019-12-15T00:00:00"/>
+    <x v="86"/>
     <x v="99"/>
     <n v="23028"/>
     <n v="1509076"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="62"/>
     <s v="12,269_x000a_93%_x000a_35.50 - 75.50"/>
     <n v="164"/>
   </r>
   <r>
-    <d v="2019-12-21T00:00:00"/>
+    <x v="94"/>
     <x v="99"/>
     <n v="21725"/>
     <n v="1507318"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="124"/>
     <s v="12,530_x000a_86%_x000a_49.00 - 89.00"/>
     <n v="165"/>
   </r>
   <r>
-    <d v="2019-11-24T00:00:00"/>
+    <x v="47"/>
     <x v="94"/>
     <n v="16387"/>
     <n v="1499232"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="125"/>
     <s v="16,387_x000a_100%_x000a_41.00 - 181.00"/>
     <n v="166"/>
   </r>
   <r>
-    <d v="2020-01-10T00:00:00"/>
+    <x v="95"/>
     <x v="122"/>
     <n v="11144"/>
     <n v="1496668"/>
   </r>
   <r>
-    <s v="01/11/20_x000a_4 shows"/>
+    <x v="96"/>
     <x v="123"/>
     <s v="2,786_x000a_100%_x000a_87.50 - 195.00"/>
     <n v="167"/>
   </r>
   <r>
-    <d v="2019-12-01T00:00:00"/>
+    <x v="97"/>
     <x v="16"/>
     <n v="15451"/>
     <n v="1492481"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="126"/>
     <s v="15,503_x000a_99%_x000a_80.00 - 95.00"/>
     <n v="168"/>
   </r>
   <r>
-    <d v="2020-02-21T00:00:00"/>
+    <x v="61"/>
     <x v="117"/>
     <n v="25801"/>
     <n v="1482246"/>
   </r>
   <r>
-    <s v="02/22/20_x000a_2 shows"/>
+    <x v="87"/>
     <x v="127"/>
     <s v="13,030_x000a_99%_x000a_46.00 - 76.00"/>
     <n v="169"/>
   </r>
   <r>
-    <d v="2020-01-29T00:00:00"/>
+    <x v="8"/>
     <x v="128"/>
     <n v="12775"/>
     <n v="1473067"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="129"/>
     <s v="12,775_x000a_100%_x000a_58.50 - 143.50"/>
     <n v="170"/>
   </r>
   <r>
-    <d v="2020-01-22T00:00:00"/>
+    <x v="98"/>
     <x v="128"/>
     <n v="12532"/>
     <n v="1471076"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="11"/>
     <s v="12,532_x000a_100%_x000a_59.50 - 144.00"/>
     <n v="171"/>
   </r>
   <r>
-    <d v="2019-12-06T00:00:00"/>
+    <x v="22"/>
     <x v="119"/>
     <n v="12430"/>
     <n v="1469074"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="62"/>
     <s v="12,430_x000a_100%_x000a_29.95 - 500.00"/>
     <n v="172"/>
   </r>
   <r>
-    <d v="2019-12-13T00:00:00"/>
+    <x v="35"/>
     <x v="92"/>
     <n v="11829"/>
     <n v="1466665"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="130"/>
     <s v="11,829_x000a_100%_x000a_29.95 - 500.00"/>
     <n v="173"/>
   </r>
   <r>
-    <d v="2019-12-12T00:00:00"/>
+    <x v="59"/>
     <x v="40"/>
     <n v="12705"/>
     <n v="1465817"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="131"/>
     <s v="12,705_x000a_100%_x000a_45.20 - 245.20"/>
     <n v="174"/>
   </r>
   <r>
-    <d v="2020-02-01T00:00:00"/>
+    <x v="68"/>
     <x v="128"/>
     <n v="12568"/>
     <n v="1456496"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="132"/>
     <s v="12,568_x000a_100%_x000a_61.00 - 146.00"/>
     <n v="175"/>
   </r>
   <r>
-    <d v="2019-12-23T00:00:00"/>
+    <x v="99"/>
     <x v="99"/>
     <n v="19929"/>
     <n v="1449301"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="133"/>
     <s v="10,321_x000a_96%_x000a_49.50 - 79.50"/>
     <n v="176"/>
   </r>
   <r>
-    <d v="2020-02-14T00:00:00"/>
+    <x v="4"/>
     <x v="134"/>
     <n v="18850"/>
     <n v="1447956"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="135"/>
     <s v="18,850_x000a_100%_x000a_29.00 - 129.00"/>
     <n v="177"/>
   </r>
   <r>
-    <d v="2019-11-30T00:00:00"/>
+    <x v="100"/>
     <x v="136"/>
     <n v="14565"/>
     <n v="1435061"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="137"/>
     <s v="14,565_x000a_100%_x000a_25.00 - 237.62"/>
     <n v="178"/>
   </r>
   <r>
-    <s v="Date"/>
+    <x v="42"/>
     <x v="35"/>
     <s v="Tickets Sold Capacity"/>
     <s v="Gross"/>
   </r>
   <r>
-    <d v="2019-12-30T00:00:00"/>
+    <x v="101"/>
     <x v="138"/>
     <n v="30244"/>
     <n v="4184642"/>
   </r>
   <r>
-    <s v="12/31/19_x000a_2 shows"/>
+    <x v="102"/>
     <x v="93"/>
     <s v="15,122_x000a_100%_x000a_50.00 - 199.00"/>
     <n v="23"/>
   </r>
   <r>
-    <d v="2020-01-31T00:00:00"/>
+    <x v="52"/>
     <x v="139"/>
     <n v="31556"/>
     <n v="4175323"/>
   </r>
   <r>
-    <s v="02/01/20_x000a_2 shows"/>
+    <x v="82"/>
     <x v="19"/>
     <s v="16,038_x000a_98%_x000a_50.00 - 499.00"/>
     <n v="24"/>
   </r>
   <r>
-    <d v="2020-02-23T00:00:00"/>
+    <x v="103"/>
     <x v="140"/>
     <n v="72383"/>
     <n v="4166464"/>
   </r>
   <r>
-    <s v="02/24/20_x000a_2 shows"/>
+    <x v="104"/>
     <x v="141"/>
     <s v="50,000_x000a_72%_x000a_380.00 - 3,300.00"/>
     <s v="2(78,654Pesos_x000a_2,196)"/>
   </r>
   <r>
-    <d v="2020-03-06T00:00:00"/>
+    <x v="20"/>
     <x v="142"/>
     <n v="45645"/>
     <n v="3945267"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="143"/>
     <s v="45,645_x000a_100%_x000a_320.00 - 6,500.00"/>
     <s v="2(77,567Pesos_x000a_1,121)"/>
   </r>
   <r>
-    <d v="2019-12-03T00:00:00"/>
+    <x v="105"/>
     <x v="92"/>
     <n v="27495"/>
     <n v="3842660"/>
   </r>
   <r>
-    <s v="12/04/19_x000a_2 shows"/>
+    <x v="106"/>
     <x v="5"/>
     <s v="13,747_x000a_100%_x000a_29.95 - 500.00"/>
     <n v="27"/>
   </r>
   <r>
-    <d v="2019-12-27T00:00:00"/>
+    <x v="84"/>
     <x v="14"/>
     <n v="55442"/>
     <n v="3776997"/>
   </r>
   <r>
-    <s v="12/28-29_x000a_4 shows"/>
+    <x v="107"/>
     <x v="15"/>
     <s v="13,908_x000a_99%_x000a_15.00 - 300.00"/>
     <n v="28"/>
   </r>
   <r>
-    <d v="2019-12-14T00:00:00"/>
+    <x v="44"/>
     <x v="144"/>
     <n v="13339"/>
     <n v="3727742"/>
   </r>
   <r>
-    <s v="12/15,17-19_x000a_12/20-21_x000a_6 shows"/>
+    <x v="108"/>
     <x v="145"/>
     <s v="2,223_x000a_100%_x000a_51.50 - 758.50"/>
     <n v="29"/>
   </r>
   <r>
-    <d v="2020-02-18T00:00:00"/>
+    <x v="109"/>
     <x v="29"/>
     <n v="28257"/>
     <n v="3665416"/>
   </r>
   <r>
-    <s v="02/19/20_x000a_2 shows"/>
+    <x v="110"/>
     <x v="146"/>
     <s v="14,128_x000a_100%_x000a_65.00 - 225.00"/>
     <s v="3( Ca0nadian_x000a_4,852,478)"/>
   </r>
   <r>
-    <d v="2020-02-20T00:00:00"/>
+    <x v="111"/>
     <x v="147"/>
     <n v="43370"/>
     <n v="3546388"/>
   </r>
   <r>
-    <s v="02/21-22_x000a_3 shows"/>
+    <x v="112"/>
     <x v="148"/>
     <s v="14,476_x000a_99%_x000a_400.00 - 4,500.00"/>
     <s v="3(66,913Pesos_x000a_8,240)"/>
   </r>
   <r>
-    <d v="2019-11-23T00:00:00"/>
+    <x v="66"/>
     <x v="149"/>
     <n v="69979"/>
     <n v="3466405"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="150"/>
     <s v="71,400_x000a_98%_x000a_600.00 - 2,500.00"/>
     <s v="3(66,329Pesos_x000a_3,514)"/>
   </r>
   <r>
-    <d v="2019-12-27T00:00:00"/>
+    <x v="84"/>
     <x v="138"/>
     <n v="25166"/>
     <n v="3456199"/>
   </r>
   <r>
-    <s v="12/28/19_x000a_2 shows"/>
+    <x v="113"/>
     <x v="13"/>
     <s v="12,583_x000a_100%_x000a_50.00 - 199.00"/>
     <n v="33"/>
   </r>
   <r>
-    <d v="2019-12-17T00:00:00"/>
+    <x v="88"/>
     <x v="40"/>
     <n v="22990"/>
     <n v="3383378"/>
   </r>
   <r>
-    <s v="12/18/19_x000a_2 shows"/>
+    <x v="114"/>
     <x v="93"/>
     <s v="11,495_x000a_100%_x000a_54.95 - 274.95"/>
     <n v="34"/>
   </r>
   <r>
-    <d v="2019-12-21T00:00:00"/>
+    <x v="94"/>
     <x v="40"/>
     <n v="25810"/>
     <n v="3383378"/>
   </r>
   <r>
-    <s v="12/22/19_x000a_2 shows"/>
+    <x v="115"/>
     <x v="13"/>
     <s v="12,905_x000a_100%_x000a_54.95 - 274.95"/>
     <n v="35"/>
   </r>
   <r>
-    <d v="2019-12-13T00:00:00"/>
+    <x v="35"/>
     <x v="151"/>
     <n v="17986"/>
     <n v="3322352"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="152"/>
     <s v="17,986_x000a_100%_x000a_52.00 - 757.00"/>
     <n v="36"/>
   </r>
   <r>
-    <d v="2020-02-14T00:00:00"/>
+    <x v="4"/>
     <x v="12"/>
     <n v="22734"/>
     <n v="3308230"/>
   </r>
   <r>
-    <s v="02/22/20_x000a_2 shows"/>
+    <x v="87"/>
     <x v="17"/>
     <s v="11,367_x000a_100%_x000a_59.50 - 500.00"/>
     <n v="37"/>
   </r>
   <r>
-    <d v="2019-11-22T00:00:00"/>
+    <x v="24"/>
     <x v="153"/>
     <n v="25770"/>
     <n v="3276482"/>
   </r>
   <r>
-    <s v="11/23/19_x000a_2 shows"/>
+    <x v="25"/>
     <x v="154"/>
     <s v="12,885_x000a_100%_x000a_61.00 - 201.00"/>
     <n v="38"/>
   </r>
   <r>
-    <d v="2020-03-03T00:00:00"/>
+    <x v="89"/>
     <x v="12"/>
     <n v="26062"/>
     <n v="3220180"/>
   </r>
   <r>
-    <s v="03/05/20_x000a_2 shows"/>
+    <x v="116"/>
     <x v="155"/>
     <s v="13,031_x000a_100%_x000a_39.50 - 500.00"/>
     <n v="39"/>
   </r>
   <r>
-    <d v="2020-02-14T00:00:00"/>
+    <x v="4"/>
     <x v="156"/>
     <n v="31035"/>
     <n v="3166581"/>
   </r>
   <r>
-    <s v="02/15/20_x000a_2 shows"/>
+    <x v="92"/>
     <x v="157"/>
     <s v="15,517_x000a_100%_x000a_39.00 - 249.00"/>
     <n v="40"/>
   </r>
   <r>
-    <d v="2019-11-29T00:00:00"/>
+    <x v="56"/>
     <x v="7"/>
     <n v="14744"/>
     <n v="3135350"/>
   </r>
   <r>
-    <s v="12/01,04_x000a_3 shows"/>
+    <x v="117"/>
     <x v="8"/>
     <s v="4,944_x000a_99%_x000a_75.00 - 750.00"/>
     <n v="41"/>
   </r>
   <r>
-    <d v="2020-03-01T00:00:00"/>
+    <x v="83"/>
     <x v="12"/>
     <n v="22605"/>
     <n v="3022752"/>
   </r>
   <r>
-    <s v="03/02/20_x000a_2 shows"/>
+    <x v="118"/>
     <x v="158"/>
     <s v="11,302_x000a_100%_x000a_39.50 - 500.00"/>
     <n v="42"/>
   </r>
   <r>
-    <d v="2019-11-21T00:00:00"/>
+    <x v="80"/>
     <x v="7"/>
     <n v="14350"/>
     <n v="3008795"/>
   </r>
   <r>
-    <s v="11/24,26_x000a_3 shows"/>
+    <x v="119"/>
     <x v="8"/>
     <s v="4,944_x000a_96%_x000a_75.00 - 895.00"/>
     <n v="43"/>
   </r>
   <r>
-    <d v="2019-12-01T00:00:00"/>
+    <x v="97"/>
     <x v="29"/>
     <n v="13685"/>
     <n v="2870852"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="159"/>
     <s v="13,685_x000a_100%_x000a_64.00 - 241.00"/>
     <n v="44"/>
   </r>
   <r>
-    <s v="Date"/>
+    <x v="42"/>
     <x v="35"/>
     <m/>
     <s v="Gross"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="36"/>
     <m/>
     <m/>
   </r>
   <r>
-    <d v="2020-02-05T00:00:00"/>
+    <x v="14"/>
     <x v="105"/>
     <n v="11881"/>
     <n v="2572193"/>
   </r>
   <r>
-    <s v="02/07-08_x000a_3 shows"/>
+    <x v="120"/>
     <x v="106"/>
     <s v="4,170_x000a_94%_x000a_55.00 - 229.00"/>
     <n v="57"/>
   </r>
   <r>
-    <d v="2020-01-25T00:00:00"/>
+    <x v="29"/>
     <x v="142"/>
     <n v="18679"/>
     <n v="2564160"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="160"/>
     <s v="18,679_x000a_100%_x000a_65.50 - 149.50"/>
     <n v="58"/>
   </r>
   <r>
-    <d v="2019-12-27T00:00:00"/>
+    <x v="84"/>
     <x v="161"/>
     <n v="15616"/>
     <n v="2526072"/>
   </r>
   <r>
-    <s v="12/28/19_x000a_12/30-31_x000a_4 shows"/>
+    <x v="121"/>
     <x v="162"/>
     <s v="4,096_x000a_95%_x000a_86.00 - 545.00"/>
     <n v="59"/>
   </r>
   <r>
-    <d v="2019-12-07T00:00:00"/>
+    <x v="55"/>
     <x v="144"/>
     <n v="11604"/>
     <n v="2519172"/>
   </r>
   <r>
-    <s v="12/08/19_x000a_12/10-11_x000a_4 shows"/>
+    <x v="122"/>
     <x v="163"/>
     <s v="2,901_x000a_100%_x000a_50.00 - 757.00"/>
     <n v="60"/>
   </r>
   <r>
-    <d v="2020-02-14T00:00:00"/>
+    <x v="4"/>
     <x v="27"/>
     <n v="13931"/>
     <n v="2498351"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="164"/>
     <s v="14,614_x000a_95%_x000a_79.00 - 359.00"/>
     <n v="61"/>
   </r>
   <r>
-    <d v="2020-02-22T00:00:00"/>
+    <x v="91"/>
     <x v="29"/>
     <n v="11252"/>
     <n v="2470305"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="165"/>
     <s v="11,252_x000a_100%_x000a_84.00 - 249.50"/>
     <n v="62"/>
   </r>
   <r>
-    <d v="2019-12-15T00:00:00"/>
+    <x v="86"/>
     <x v="27"/>
     <n v="13288"/>
     <n v="2449082"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="166"/>
     <s v="14,260_x000a_93%_x000a_83.00 - 369.00"/>
     <n v="63"/>
   </r>
   <r>
-    <d v="2019-12-11T00:00:00"/>
+    <x v="64"/>
     <x v="142"/>
     <n v="18462"/>
     <n v="2433563"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="160"/>
     <s v="18,462_x000a_100%_x000a_65.50 - 149.50"/>
     <n v="64"/>
   </r>
   <r>
-    <d v="2019-12-30T00:00:00"/>
+    <x v="101"/>
     <x v="140"/>
     <n v="15437"/>
     <n v="2419966"/>
   </r>
   <r>
-    <s v="12/31/19_x000a_2 shows"/>
+    <x v="102"/>
     <x v="167"/>
     <s v="8,317_x000a_92%_x000a_79.50 - 230.00"/>
     <n v="65"/>
   </r>
   <r>
-    <d v="2020-02-20T00:00:00"/>
+    <x v="111"/>
     <x v="142"/>
     <n v="18229"/>
     <n v="2418296"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="160"/>
     <s v="18,229_x000a_100%_x000a_65.50 - 149.50"/>
     <n v="66"/>
   </r>
   <r>
-    <d v="2019-12-07T00:00:00"/>
+    <x v="55"/>
     <x v="168"/>
     <n v="62388"/>
     <n v="2364492"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="143"/>
     <s v="62,388_x000a_100%_x000a_300.00 - 3,000.00"/>
     <s v="6(46,279Pesos_x000a_9,050)"/>
   </r>
   <r>
-    <d v="2020-02-07T00:00:00"/>
+    <x v="6"/>
     <x v="142"/>
     <n v="18378"/>
     <n v="2358301"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="169"/>
     <s v="18,378_x000a_100%_x000a_49.50 - 169.50"/>
     <n v="68"/>
   </r>
   <r>
-    <s v="Date"/>
+    <x v="42"/>
     <x v="35"/>
     <s v="Tickets Sold Capacity"/>
     <s v="Gross"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="36"/>
     <m/>
     <m/>
   </r>
   <r>
-    <d v="2020-02-26T00:00:00"/>
+    <x v="123"/>
     <x v="29"/>
     <n v="13289"/>
     <n v="2011920"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="170"/>
     <s v="13,289_x000a_100%_x000a_60.00 - 180.00"/>
     <n v="91"/>
   </r>
   <r>
-    <d v="2019-11-22T00:00:00"/>
+    <x v="24"/>
     <x v="70"/>
     <n v="14409"/>
     <n v="2005591"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="171"/>
     <s v="14,409_x000a_100%_x000a_29.95 - 569.95"/>
     <n v="92"/>
   </r>
   <r>
-    <d v="2020-03-03T00:00:00"/>
+    <x v="89"/>
     <x v="29"/>
     <n v="10672"/>
     <n v="1985445"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="172"/>
     <s v="10,672_x000a_100%_x000a_64.00 - 246.00"/>
     <n v="93"/>
   </r>
   <r>
-    <d v="2020-02-27T00:00:00"/>
+    <x v="27"/>
     <x v="109"/>
     <n v="14305"/>
     <n v="1982638"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="155"/>
     <s v="14,305_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="94"/>
   </r>
   <r>
-    <d v="2019-12-31T00:00:00"/>
+    <x v="124"/>
     <x v="173"/>
     <n v="15619"/>
     <n v="1978866"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="174"/>
     <s v="15,619_x000a_100%_x000a_59.50 - 199.50"/>
     <n v="95"/>
   </r>
   <r>
-    <d v="2020-01-09T00:00:00"/>
+    <x v="125"/>
     <x v="175"/>
     <n v="3667"/>
     <n v="1943700"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="176"/>
     <s v="3,876_x000a_94%_x000a_300.00 - 1,800.00"/>
     <n v="96"/>
   </r>
   <r>
-    <d v="2020-02-04T00:00:00"/>
+    <x v="126"/>
     <x v="61"/>
     <n v="14501"/>
     <n v="1926887"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="177"/>
     <s v="14,501_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="97"/>
   </r>
   <r>
-    <d v="2020-02-13T00:00:00"/>
+    <x v="78"/>
     <x v="12"/>
     <n v="12296"/>
     <n v="1920593"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="11"/>
     <s v="12,296_x000a_100%_x000a_39.50 - 500.00"/>
     <n v="98"/>
   </r>
   <r>
-    <d v="2020-02-07T00:00:00"/>
+    <x v="6"/>
     <x v="61"/>
     <n v="13387"/>
     <n v="1920408"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="178"/>
     <s v="13,387_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="99"/>
   </r>
   <r>
-    <d v="2020-01-08T00:00:00"/>
+    <x v="127"/>
     <x v="29"/>
     <n v="11272"/>
     <n v="1912510"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="179"/>
     <s v="11,272_x000a_100%_x000a_66.00 - 197.00"/>
     <n v="100"/>
   </r>
   <r>
-    <d v="2020-02-29T00:00:00"/>
+    <x v="12"/>
     <x v="61"/>
     <n v="13231"/>
     <n v="1895616"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="180"/>
     <s v="13,231_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="101"/>
   </r>
   <r>
-    <d v="2020-03-04T00:00:00"/>
+    <x v="128"/>
     <x v="61"/>
     <n v="13838"/>
     <n v="1884054"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="181"/>
     <s v="13,838_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="102"/>
   </r>
   <r>
-    <d v="2020-02-05T00:00:00"/>
+    <x v="14"/>
     <x v="61"/>
     <n v="13406"/>
     <n v="1881241"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="182"/>
     <s v="13,406_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="103"/>
   </r>
   <r>
-    <d v="2020-03-05T00:00:00"/>
+    <x v="129"/>
     <x v="29"/>
     <n v="12543"/>
     <n v="1875568"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="183"/>
     <s v="12,543_x000a_100%_x000a_64.00 - 201.00"/>
     <n v="104"/>
   </r>
   <r>
-    <d v="2020-02-18T00:00:00"/>
+    <x v="109"/>
     <x v="61"/>
     <n v="12821"/>
     <n v="1873212"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="184"/>
     <s v="12,821_x000a_100%_x000a_53.50 - 503.50"/>
     <n v="105"/>
   </r>
   <r>
-    <d v="2020-02-11T00:00:00"/>
+    <x v="65"/>
     <x v="109"/>
     <n v="12776"/>
     <n v="1861282"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="185"/>
     <s v="12,776_x000a_100%_x000a_63.50 - 503.50"/>
     <n v="106"/>
   </r>
   <r>
-    <d v="2020-03-12T00:00:00"/>
+    <x v="130"/>
     <x v="186"/>
     <n v="46301"/>
     <n v="1856352"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="143"/>
     <s v="64,379_x000a_71%_x000a_200.00 - 4,000.00"/>
     <s v="1(306,49P7esos_x000a_9,253)"/>
   </r>
   <r>
-    <d v="2020-03-12T00:00:00"/>
+    <x v="130"/>
     <x v="61"/>
     <n v="13102"/>
     <n v="1853572"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="187"/>
     <s v="13,102_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="108"/>
   </r>
   <r>
-    <d v="2019-11-24T00:00:00"/>
+    <x v="47"/>
     <x v="70"/>
     <n v="14961"/>
     <n v="1831948"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="188"/>
     <s v="14,961_x000a_100%_x000a_34.45 - 499.95"/>
     <n v="109"/>
   </r>
   <r>
-    <d v="2020-03-10T00:00:00"/>
+    <x v="54"/>
     <x v="189"/>
     <n v="25986"/>
     <n v="1820394"/>
   </r>
   <r>
-    <s v="03/11/20_x000a_2 shows"/>
+    <x v="131"/>
     <x v="190"/>
     <s v="12,993_x000a_100%_x000a_49.50 - 79.50"/>
     <n v="110"/>
   </r>
   <r>
-    <d v="2019-12-07T00:00:00"/>
+    <x v="55"/>
     <x v="29"/>
     <n v="10487"/>
     <n v="1816438"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="191"/>
     <s v="10,487_x000a_100%_x000a_55.50 - 225.50"/>
     <n v="111"/>
   </r>
   <r>
-    <d v="2019-12-19T00:00:00"/>
+    <x v="132"/>
     <x v="92"/>
     <n v="13312"/>
     <n v="1809893"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="11"/>
     <s v="13,312_x000a_100%_x000a_29.95 - 500.00"/>
     <n v="112"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="36"/>
     <m/>
     <m/>
   </r>
   <r>
-    <s v="Date"/>
+    <x v="42"/>
     <x v="35"/>
     <m/>
     <s v="Gross"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="36"/>
     <m/>
     <m/>
   </r>
   <r>
-    <d v="2020-01-31T00:00:00"/>
+    <x v="52"/>
     <x v="192"/>
     <n v="31052"/>
     <n v="1639228"/>
   </r>
   <r>
-    <s v="02/01/20_x000a_2 shows"/>
+    <x v="82"/>
     <x v="193"/>
     <s v="15,526_x000a_100%_x000a_54.00 - 138.00"/>
     <n v="135"/>
   </r>
   <r>
-    <d v="2019-12-03T00:00:00"/>
+    <x v="105"/>
     <x v="29"/>
     <n v="11633"/>
     <n v="1630450"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="194"/>
     <s v="11,633_x000a_100%_x000a_55.00 - 191.00"/>
     <n v="136"/>
   </r>
   <r>
-    <d v="2020-03-09T00:00:00"/>
+    <x v="133"/>
     <x v="61"/>
     <n v="11914"/>
     <n v="1629539"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="195"/>
     <s v="11,914_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="137"/>
   </r>
   <r>
-    <d v="2020-02-16T00:00:00"/>
+    <x v="134"/>
     <x v="27"/>
     <n v="9932"/>
     <n v="1626055"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="196"/>
     <s v="12,844_x000a_77%_x000a_74.60 - 362.50"/>
     <n v="138"/>
   </r>
   <r>
-    <d v="2020-02-12T00:00:00"/>
+    <x v="135"/>
     <x v="61"/>
     <n v="10924"/>
     <n v="1625735"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="197"/>
     <s v="10,924_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="139"/>
   </r>
   <r>
-    <d v="2019-12-21T00:00:00"/>
+    <x v="94"/>
     <x v="99"/>
     <n v="24245"/>
     <n v="1621428"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="11"/>
     <s v="13,235_x000a_91%_x000a_44.00 - 74.00"/>
     <n v="140"/>
   </r>
   <r>
-    <d v="2020-02-05T00:00:00"/>
+    <x v="14"/>
     <x v="29"/>
     <n v="11004"/>
     <n v="1619919"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="198"/>
     <s v="11,004_x000a_100%_x000a_54.00 - 193.00"/>
     <n v="141"/>
   </r>
   <r>
-    <d v="2019-11-22T00:00:00"/>
+    <x v="24"/>
     <x v="199"/>
     <n v="1263"/>
     <n v="1617649"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="200"/>
     <s v="12,636_x000a_10%_x000a_49.95 - 279.95"/>
     <n v="142"/>
   </r>
   <r>
-    <d v="2020-02-09T00:00:00"/>
+    <x v="72"/>
     <x v="29"/>
     <n v="11452"/>
     <n v="1609727"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="201"/>
     <s v="11,452_x000a_100%_x000a_51.00 - 185.00"/>
     <n v="143"/>
   </r>
   <r>
-    <d v="2019-11-23T00:00:00"/>
+    <x v="66"/>
     <x v="92"/>
     <n v="12936"/>
     <n v="1608662"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="202"/>
     <s v="12,936_x000a_100%_x000a_29.95 - 500.00"/>
     <n v="144"/>
   </r>
   <r>
-    <d v="2019-12-28T00:00:00"/>
+    <x v="18"/>
     <x v="99"/>
     <n v="24574"/>
     <n v="1603507"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="203"/>
     <s v="14,753_x000a_83%_x000a_49.00 - 89.00"/>
     <n v="145"/>
   </r>
   <r>
-    <d v="2019-12-22T00:00:00"/>
+    <x v="136"/>
     <x v="99"/>
     <n v="22374"/>
     <n v="1597379"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="17"/>
     <s v="11,758_x000a_95%_x000a_49.50 - 79.50"/>
     <n v="146"/>
   </r>
   <r>
-    <d v="2020-02-24T00:00:00"/>
+    <x v="63"/>
     <x v="29"/>
     <n v="11181"/>
     <n v="1591232"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="204"/>
     <s v="11,181_x000a_100%_x000a_52.00 - 226.00"/>
     <n v="147"/>
   </r>
   <r>
-    <d v="2020-03-10T00:00:00"/>
+    <x v="54"/>
     <x v="109"/>
     <n v="11618"/>
     <n v="1581477"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="205"/>
     <s v="11,618_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="148"/>
   </r>
   <r>
-    <d v="2020-02-13T00:00:00"/>
+    <x v="78"/>
     <x v="112"/>
     <n v="26232"/>
     <n v="1581252"/>
   </r>
   <r>
-    <s v="02/14/20_x000a_2 shows"/>
+    <x v="137"/>
     <x v="206"/>
     <s v="13,116_x000a_100%_x000a_39.00 - 89.00"/>
     <n v="149"/>
   </r>
   <r>
-    <d v="2019-11-25T00:00:00"/>
+    <x v="50"/>
     <x v="128"/>
     <n v="14150"/>
     <n v="1574120"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="155"/>
     <s v="14,889_x000a_95%_x000a_75.00 - 150.00"/>
     <n v="150"/>
   </r>
   <r>
-    <d v="2020-02-13T00:00:00"/>
+    <x v="78"/>
     <x v="153"/>
     <n v="12824"/>
     <n v="1573895"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="207"/>
     <s v="12,824_x000a_100%_x000a_67.00 - 233.00"/>
     <n v="151"/>
   </r>
   <r>
-    <d v="2019-12-22T00:00:00"/>
+    <x v="136"/>
     <x v="99"/>
     <n v="23979"/>
     <n v="1568427"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="65"/>
     <s v="13,136_x000a_91%_x000a_20.50 - 75.75"/>
     <n v="152"/>
   </r>
   <r>
-    <d v="2019-11-22T00:00:00"/>
+    <x v="24"/>
     <x v="128"/>
     <n v="12980"/>
     <n v="1568358"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="208"/>
     <s v="12,980_x000a_100%_x000a_59.50 - 149.50"/>
     <n v="153"/>
   </r>
   <r>
-    <d v="2020-03-06T00:00:00"/>
+    <x v="20"/>
     <x v="209"/>
     <n v="25558"/>
     <n v="1568041"/>
   </r>
   <r>
-    <s v="03/07/20_x000a_2 shows"/>
+    <x v="21"/>
     <x v="210"/>
     <s v="13,104_x000a_97%_x000a_39.51 - 79.50"/>
     <n v="154"/>
   </r>
   <r>
-    <d v="2019-11-27T00:00:00"/>
+    <x v="138"/>
     <x v="211"/>
     <n v="10215"/>
     <n v="1563837"/>
   </r>
   <r>
-    <s v="11/29-30_x000a_3 shows"/>
+    <x v="139"/>
     <x v="106"/>
     <s v="3,671_x000a_92%_x000a_60.00 - 273.00"/>
     <n v="155"/>
   </r>
   <r>
-    <d v="2019-12-01T00:00:00"/>
+    <x v="97"/>
     <x v="94"/>
     <n v="15790"/>
     <n v="1554002"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="212"/>
     <s v="15,790_x000a_100%_x000a_51.00 - 181.00"/>
     <n v="156"/>
   </r>
   <r>
-    <s v="Date"/>
+    <x v="42"/>
     <x v="35"/>
     <s v="Tickets Sold Capacity"/>
     <s v="Gross"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="36"/>
     <m/>
     <m/>
   </r>
   <r>
-    <d v="2019-12-07T00:00:00"/>
+    <x v="55"/>
     <x v="99"/>
     <n v="21002"/>
     <n v="1429560"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="213"/>
     <s v="10,887_x000a_96%_x000a_49.50 - 89.50"/>
     <n v="179"/>
   </r>
   <r>
-    <d v="2020-02-15T00:00:00"/>
+    <x v="73"/>
     <x v="214"/>
     <n v="14790"/>
     <n v="1429121"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="215"/>
     <s v="14,790_x000a_100%_x000a_76.00 - 166.00"/>
     <n v="180"/>
   </r>
   <r>
-    <d v="2019-12-11T00:00:00"/>
+    <x v="64"/>
     <x v="216"/>
     <n v="11754"/>
     <n v="1416850"/>
   </r>
   <r>
-    <s v="12/13-14_x000a_3 shows"/>
+    <x v="140"/>
     <x v="217"/>
     <s v="4,299_x000a_91%_x000a_80.00 - 308.00"/>
     <n v="181"/>
   </r>
   <r>
-    <d v="2019-11-27T00:00:00"/>
+    <x v="138"/>
     <x v="218"/>
     <n v="11722"/>
     <n v="1411818"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="219"/>
     <s v="11,722_x000a_100%_x000a_277.29 - 47.29"/>
     <n v="182"/>
   </r>
   <r>
-    <d v="2020-02-24T00:00:00"/>
+    <x v="63"/>
     <x v="147"/>
     <n v="25442"/>
     <n v="1401856"/>
   </r>
   <r>
-    <s v="02/25/20_x000a_2 shows"/>
+    <x v="141"/>
     <x v="220"/>
     <s v="12,721_x000a_100%_x000a_450.00 - 3,200.00"/>
     <s v="1(286,46P3esos_x000a_0,100)"/>
   </r>
   <r>
-    <d v="2020-02-15T00:00:00"/>
+    <x v="73"/>
     <x v="153"/>
     <n v="12898"/>
     <n v="1398101"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="221"/>
     <s v="12,898_x000a_100%_x000a_61.00 - 201.00"/>
     <n v="184"/>
   </r>
   <r>
-    <d v="2020-02-21T00:00:00"/>
+    <x v="61"/>
     <x v="153"/>
     <n v="12997"/>
     <n v="1394908"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="222"/>
     <s v="12,997_x000a_100%_x000a_64.50 - 184.50"/>
     <n v="185"/>
   </r>
   <r>
-    <d v="2019-12-01T00:00:00"/>
+    <x v="97"/>
     <x v="99"/>
     <n v="19364"/>
     <n v="1394296"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="197"/>
     <s v="10,295_x000a_94%_x000a_49.00 - 89.00"/>
     <n v="186"/>
   </r>
   <r>
-    <d v="2019-12-07T00:00:00"/>
+    <x v="55"/>
     <x v="99"/>
     <n v="20835"/>
     <n v="1384659"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="182"/>
     <s v="12,707_x000a_81%_x000a_49.00 - 89.00"/>
     <n v="187"/>
   </r>
   <r>
-    <d v="2019-12-13T00:00:00"/>
+    <x v="35"/>
     <x v="223"/>
     <n v="14161"/>
     <n v="1383153"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="224"/>
     <s v="20,000_x000a_70%_x000a_79.00 - 230.00"/>
     <n v="188"/>
   </r>
   <r>
-    <d v="2019-11-30T00:00:00"/>
+    <x v="100"/>
     <x v="70"/>
     <n v="12289"/>
     <n v="1379531"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="225"/>
     <s v="12,289_x000a_100%_x000a_29.95 - 495.95"/>
     <n v="189"/>
   </r>
   <r>
-    <d v="2019-12-08T00:00:00"/>
+    <x v="67"/>
     <x v="92"/>
     <n v="11511"/>
     <n v="1378938"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="158"/>
     <s v="11,511_x000a_100%_x000a_29.95 - 500.00"/>
     <n v="190"/>
   </r>
   <r>
-    <d v="2020-03-03T00:00:00"/>
+    <x v="89"/>
     <x v="61"/>
     <n v="9482"/>
     <n v="1373714"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="226"/>
     <s v="9,482_x000a_100%_x000a_55.00 - 525.00"/>
     <n v="191"/>
   </r>
   <r>
-    <d v="2019-12-15T00:00:00"/>
+    <x v="86"/>
     <x v="227"/>
     <n v="12995"/>
     <n v="1368366"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="5"/>
     <s v="12,995_x000a_100%_x000a_60.95 - 500.95"/>
     <n v="192"/>
   </r>
   <r>
-    <d v="2020-02-14T00:00:00"/>
+    <x v="4"/>
     <x v="228"/>
     <n v="23419"/>
     <n v="1361619"/>
   </r>
   <r>
-    <s v="02/15/20_x000a_2 shows"/>
+    <x v="92"/>
     <x v="229"/>
     <s v="12,227_x000a_95%_x000a_25.00 - 200.00"/>
     <n v="193"/>
   </r>
   <r>
-    <d v="2019-12-01T00:00:00"/>
+    <x v="97"/>
     <x v="99"/>
     <n v="21093"/>
     <n v="1355277"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="131"/>
     <s v="10,938_x000a_96%_x000a_49.00 - 89.00"/>
     <n v="194"/>
   </r>
   <r>
-    <d v="2019-12-30T00:00:00"/>
+    <x v="101"/>
     <x v="99"/>
     <n v="23906"/>
     <n v="1352134"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="230"/>
     <s v="23,906_x000a_100%_x000a_39.00 - 105.00"/>
     <s v="19( Cana5dian_x000a_1,796,068)"/>
   </r>
   <r>
-    <d v="2019-11-21T00:00:00"/>
+    <x v="80"/>
     <x v="231"/>
     <n v="10676"/>
     <n v="1347500"/>
   </r>
   <r>
-    <s v="11/22/19_x000a_4 shows"/>
+    <x v="142"/>
     <x v="123"/>
     <s v="2,669_x000a_100%_x000a_87.50 - 195.00"/>
     <n v="196"/>
   </r>
   <r>
-    <d v="2020-02-16T00:00:00"/>
+    <x v="134"/>
     <x v="109"/>
     <n v="16115"/>
     <n v="1347055"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="232"/>
     <s v="16,115_x000a_100%_x000a_53.50 - 503.50"/>
     <s v="19( Cana7dian_x000a_1,783,305)"/>
   </r>
   <r>
-    <d v="2019-12-15T00:00:00"/>
+    <x v="86"/>
     <x v="233"/>
     <n v="13618"/>
     <n v="1346464"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="234"/>
     <s v="16,543_x000a_82%_x000a_26.50 - 256.50"/>
     <n v="198"/>
   </r>
   <r>
-    <d v="2019-12-27T00:00:00"/>
+    <x v="84"/>
     <x v="99"/>
     <n v="19899"/>
     <n v="1337496"/>
   </r>
   <r>
-    <s v="2 shows"/>
+    <x v="81"/>
     <x v="235"/>
     <s v="10,678_x000a_93%_x000a_49.50 - 89.50"/>
     <n v="199"/>
   </r>
   <r>
-    <d v="2019-12-03T00:00:00"/>
+    <x v="105"/>
     <x v="70"/>
     <n v="14106"/>
     <n v="1332153"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="236"/>
     <s v="14,106_x000a_100%_x000a_29.95 - 500.00"/>
     <n v="200"/>
   </r>
   <r>
-    <m/>
+    <x v="43"/>
     <x v="36"/>
     <m/>
     <m/>
@@ -15489,10 +15696,157 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EC2A742-9EEE-0648-880C-B9EFF82A56AC}" name="PivotTable5" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C68" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EC2A742-9EEE-0648-880C-B9EFF82A56AC}" name="PivotTable5" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C243" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="144">
+        <item x="96"/>
+        <item x="1"/>
+        <item x="34"/>
+        <item x="30"/>
+        <item x="9"/>
+        <item x="82"/>
+        <item x="15"/>
+        <item x="120"/>
+        <item x="49"/>
+        <item x="7"/>
+        <item x="93"/>
+        <item x="137"/>
+        <item x="5"/>
+        <item x="92"/>
+        <item x="110"/>
+        <item x="112"/>
+        <item x="62"/>
+        <item x="87"/>
+        <item x="104"/>
+        <item x="141"/>
+        <item x="28"/>
+        <item x="3"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="118"/>
+        <item x="90"/>
+        <item x="116"/>
+        <item x="21"/>
+        <item x="41"/>
+        <item x="131"/>
+        <item x="11"/>
+        <item x="142"/>
+        <item x="25"/>
+        <item x="79"/>
+        <item x="119"/>
+        <item x="139"/>
+        <item x="77"/>
+        <item x="57"/>
+        <item x="117"/>
+        <item x="106"/>
+        <item x="17"/>
+        <item x="46"/>
+        <item x="23"/>
+        <item x="122"/>
+        <item x="39"/>
+        <item x="140"/>
+        <item x="36"/>
+        <item x="108"/>
+        <item x="45"/>
+        <item x="114"/>
+        <item x="32"/>
+        <item x="70"/>
+        <item x="115"/>
+        <item x="107"/>
+        <item x="121"/>
+        <item x="113"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="102"/>
+        <item x="81"/>
+        <item x="42"/>
+        <item x="80"/>
+        <item x="24"/>
+        <item x="66"/>
+        <item x="47"/>
+        <item x="50"/>
+        <item x="138"/>
+        <item x="76"/>
+        <item x="56"/>
+        <item x="100"/>
+        <item x="97"/>
+        <item x="105"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="55"/>
+        <item x="67"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="59"/>
+        <item x="35"/>
+        <item x="44"/>
+        <item x="86"/>
+        <item x="88"/>
+        <item x="31"/>
+        <item x="132"/>
+        <item x="69"/>
+        <item x="94"/>
+        <item x="136"/>
+        <item x="99"/>
+        <item x="84"/>
+        <item x="18"/>
+        <item x="101"/>
+        <item x="124"/>
+        <item x="127"/>
+        <item x="125"/>
+        <item x="95"/>
+        <item x="58"/>
+        <item x="71"/>
+        <item x="60"/>
+        <item x="0"/>
+        <item x="33"/>
+        <item x="75"/>
+        <item x="98"/>
+        <item x="51"/>
+        <item x="29"/>
+        <item x="8"/>
+        <item x="74"/>
+        <item x="52"/>
+        <item x="68"/>
+        <item x="53"/>
+        <item x="126"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="48"/>
+        <item x="72"/>
+        <item x="65"/>
+        <item x="135"/>
+        <item x="78"/>
+        <item x="4"/>
+        <item x="73"/>
+        <item x="134"/>
+        <item x="109"/>
+        <item x="85"/>
+        <item x="111"/>
+        <item x="61"/>
+        <item x="91"/>
+        <item x="103"/>
+        <item x="63"/>
+        <item x="123"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="83"/>
+        <item x="89"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="20"/>
+        <item x="40"/>
+        <item x="133"/>
+        <item x="54"/>
+        <item x="130"/>
+        <item x="10"/>
+        <item x="43"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="238">
         <item h="1" x="84"/>
@@ -15747,201 +16101,727 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="1"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="65">
+  <rowItems count="240">
     <i>
       <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i r="1">
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="93"/>
+    </i>
+    <i r="1">
+      <x v="96"/>
+    </i>
+    <i r="1">
+      <x v="97"/>
+    </i>
+    <i r="1">
+      <x v="98"/>
+    </i>
+    <i r="1">
+      <x v="100"/>
+    </i>
+    <i r="1">
+      <x v="101"/>
+    </i>
+    <i r="1">
+      <x v="106"/>
+    </i>
+    <i r="1">
+      <x v="108"/>
+    </i>
+    <i r="1">
+      <x v="109"/>
+    </i>
+    <i r="1">
+      <x v="111"/>
+    </i>
+    <i r="1">
+      <x v="112"/>
+    </i>
+    <i r="1">
+      <x v="114"/>
+    </i>
+    <i r="1">
+      <x v="115"/>
+    </i>
+    <i r="1">
+      <x v="121"/>
+    </i>
+    <i r="1">
+      <x v="125"/>
+    </i>
+    <i r="1">
+      <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="128"/>
+    </i>
+    <i r="1">
+      <x v="130"/>
+    </i>
+    <i r="1">
+      <x v="133"/>
+    </i>
+    <i r="1">
+      <x v="135"/>
+    </i>
+    <i r="1">
+      <x v="137"/>
     </i>
     <i>
       <x v="95"/>
     </i>
+    <i r="1">
+      <x v="112"/>
+    </i>
+    <i r="1">
+      <x v="118"/>
+    </i>
+    <i r="1">
+      <x v="131"/>
+    </i>
+    <i r="1">
+      <x v="136"/>
+    </i>
     <i>
       <x v="169"/>
+    </i>
+    <i r="1">
+      <x v="110"/>
+    </i>
+    <i r="1">
+      <x v="111"/>
+    </i>
+    <i r="1">
+      <x v="112"/>
+    </i>
+    <i r="1">
+      <x v="114"/>
+    </i>
+    <i r="1">
+      <x v="116"/>
+    </i>
+    <i r="1">
+      <x v="121"/>
+    </i>
+    <i r="1">
+      <x v="124"/>
+    </i>
+    <i r="1">
+      <x v="125"/>
+    </i>
+    <i r="1">
+      <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="131"/>
+    </i>
+    <i r="1">
+      <x v="132"/>
+    </i>
+    <i r="1">
+      <x v="133"/>
+    </i>
+    <i r="1">
+      <x v="134"/>
+    </i>
+    <i r="1">
+      <x v="136"/>
+    </i>
+    <i r="1">
+      <x v="138"/>
+    </i>
+    <i r="1">
+      <x v="140"/>
     </i>
     <i>
       <x v="32"/>
     </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="81"/>
+    </i>
+    <i r="1">
+      <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="118"/>
+    </i>
+    <i r="1">
+      <x v="120"/>
+    </i>
     <i>
       <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="111"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="118"/>
+    </i>
+    <i r="1">
+      <x v="132"/>
+    </i>
+    <i r="1">
+      <x v="133"/>
     </i>
     <i>
       <x v="36"/>
     </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i r="1">
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i r="1">
+      <x v="86"/>
+    </i>
     <i>
       <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="105"/>
     </i>
     <i>
       <x v="63"/>
     </i>
+    <i r="1">
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="104"/>
+    </i>
+    <i r="1">
+      <x v="112"/>
+    </i>
+    <i r="1">
+      <x v="123"/>
+    </i>
+    <i r="1">
+      <x v="136"/>
+    </i>
     <i>
+      <x v="84"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i r="1">
       <x v="84"/>
     </i>
     <i>
       <x v="165"/>
     </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
+    <i r="1">
+      <x v="90"/>
+    </i>
     <i>
       <x v="90"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="89"/>
     </i>
     <i>
       <x v="133"/>
     </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
     <i>
       <x v="168"/>
+    </i>
+    <i r="1">
+      <x v="115"/>
+    </i>
+    <i r="1">
+      <x v="120"/>
+    </i>
+    <i r="1">
+      <x v="122"/>
+    </i>
+    <i r="1">
+      <x v="129"/>
+    </i>
+    <i r="1">
+      <x v="139"/>
     </i>
     <i>
       <x v="117"/>
     </i>
+    <i r="1">
+      <x v="103"/>
+    </i>
+    <i r="1">
+      <x v="104"/>
+    </i>
     <i>
       <x v="147"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="119"/>
+    </i>
+    <i r="1">
+      <x v="124"/>
     </i>
     <i>
       <x v="92"/>
     </i>
+    <i r="1">
+      <x v="89"/>
+    </i>
+    <i r="1">
+      <x v="91"/>
+    </i>
     <i>
       <x v="219"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i r="1">
+      <x v="102"/>
+    </i>
+    <i r="1">
+      <x v="105"/>
+    </i>
+    <i r="1">
+      <x v="108"/>
     </i>
     <i>
       <x v="150"/>
     </i>
+    <i r="1">
+      <x v="91"/>
+    </i>
+    <i r="1">
+      <x v="126"/>
+    </i>
     <i>
       <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
     </i>
     <i>
       <x v="144"/>
     </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
+    </i>
     <i>
       <x v="132"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
     </i>
     <i>
       <x v="116"/>
     </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
     <i>
       <x v="114"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
     </i>
     <i>
       <x v="136"/>
     </i>
+    <i r="1">
+      <x v="90"/>
+    </i>
     <i>
       <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="129"/>
     </i>
     <i>
       <x v="46"/>
     </i>
+    <i r="1">
+      <x v="123"/>
+    </i>
+    <i r="1">
+      <x v="127"/>
+    </i>
     <i>
       <x v="158"/>
+    </i>
+    <i r="1">
+      <x v="113"/>
+    </i>
+    <i r="1">
+      <x v="119"/>
     </i>
     <i>
       <x v="214"/>
     </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="124"/>
+    </i>
+    <i r="1">
+      <x v="133"/>
+    </i>
     <i>
       <x v="230"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i r="1">
+      <x v="111"/>
     </i>
     <i>
       <x v="115"/>
     </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
     <i>
       <x v="129"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x v="112"/>
     </i>
     <i>
       <x v="131"/>
     </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="124"/>
+    </i>
     <i>
       <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
+    <i r="1">
+      <x v="81"/>
     </i>
     <i>
       <x v="178"/>
     </i>
+    <i r="1">
+      <x v="112"/>
+    </i>
     <i>
       <x v="134"/>
     </i>
+    <i r="1">
+      <x v="89"/>
+    </i>
     <i>
+      <x v="74"/>
+    </i>
+    <i r="1">
       <x v="74"/>
     </i>
     <i>
       <x v="14"/>
     </i>
+    <i r="1">
+      <x v="124"/>
+    </i>
     <i>
       <x v="187"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
     </i>
     <i>
       <x v="97"/>
     </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
     <i>
       <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="73"/>
     </i>
     <i>
       <x v="186"/>
     </i>
+    <i r="1">
+      <x v="85"/>
+    </i>
     <i>
       <x v="216"/>
+    </i>
+    <i r="1">
+      <x v="92"/>
     </i>
     <i>
       <x v="177"/>
     </i>
+    <i r="1">
+      <x v="94"/>
+    </i>
     <i>
       <x v="191"/>
+    </i>
+    <i r="1">
+      <x v="140"/>
     </i>
     <i>
       <x v="207"/>
     </i>
+    <i r="1">
+      <x v="139"/>
+    </i>
     <i>
       <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
     </i>
     <i>
       <x v="220"/>
     </i>
+    <i r="1">
+      <x v="100"/>
+    </i>
     <i>
       <x v="98"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
     </i>
     <i>
       <x v="37"/>
     </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
     <i>
       <x v="91"/>
+    </i>
+    <i r="1">
+      <x v="136"/>
     </i>
     <i>
       <x v="148"/>
     </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
     <i>
       <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="118"/>
     </i>
     <i>
       <x v="145"/>
     </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
     <i>
       <x v="185"/>
+    </i>
+    <i r="1">
+      <x v="77"/>
     </i>
     <i>
       <x v="35"/>
     </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
     <i>
       <x v="128"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
     </i>
     <i>
       <x v="149"/>
     </i>
+    <i r="1">
+      <x v="81"/>
+    </i>
     <i>
       <x v="218"/>
+    </i>
+    <i r="1">
+      <x v="118"/>
     </i>
     <i>
       <x v="130"/>
     </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
     <i>
       <x v="107"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
     </i>
     <i>
       <x v="108"/>
     </i>
+    <i r="1">
+      <x v="142"/>
+    </i>
     <i>
       <x v="109"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
     </i>
     <i>
       <x v="106"/>
     </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
     <i>
       <x v="105"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
     </i>
     <i t="grand">
       <x/>
@@ -16295,17 +17175,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E533C772-216F-3647-8D30-6135ACD4AE04}">
-  <dimension ref="A3:C68"/>
+  <dimension ref="A3:C243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A26" sqref="A5:A31 A33:A36 A38:A53 A55:A64 A66:A70 A72:A78 A80:A82 A84:A88 A90:A96 A98:A101 A103:A104 A106:A110 A112:A116 A118:A119 A121:A124 A126:A127 A129:A133 A135:A136 A138:A141 A143:A144 A146:A148 A150 A152 A154 A156 A158:A159 A161:A162 A164:A166 A168:A169 A171 A173:A174 A176:A177 A179:A180 A182 A184 A186 A188 A190 A192 A194 A196 A198 A200 A202 A204 A206 A208 A210 A212 A214 A216 A218 A220 A222 A224 A226 A228 A230 A232 A234 A236 A238 A240 A242"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" dimension="1" activeRow="25" previousRow="25" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="157.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="164" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -16331,706 +17219,2631 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>538</v>
+      <c r="A5" s="86">
+        <v>43800</v>
       </c>
       <c r="B5" s="83">
-        <v>129632</v>
+        <v>13685</v>
       </c>
       <c r="C5" s="84">
-        <v>33552653</v>
+        <v>2870852</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>568</v>
+      <c r="A6" s="86">
+        <v>43802</v>
       </c>
       <c r="B6" s="83">
-        <v>205495</v>
+        <v>11633</v>
       </c>
       <c r="C6" s="84">
-        <v>29234706</v>
+        <v>1630450</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>520</v>
+      <c r="A7" s="86">
+        <v>43804</v>
       </c>
       <c r="B7" s="83">
-        <v>137614</v>
+        <v>12462</v>
       </c>
       <c r="C7" s="84">
-        <v>25546717</v>
+        <v>1746480</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>524</v>
+      <c r="A8" s="86">
+        <v>43806</v>
       </c>
       <c r="B8" s="83">
-        <v>135859</v>
+        <v>10487</v>
       </c>
       <c r="C8" s="84">
-        <v>18603721</v>
+        <v>1816438</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>522</v>
+      <c r="A9" s="86">
+        <v>43808</v>
       </c>
       <c r="B9" s="83">
-        <v>113733</v>
+        <v>26831</v>
       </c>
       <c r="C9" s="84">
-        <v>17035216</v>
+        <v>4852388</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>518</v>
+      <c r="A10" s="86">
+        <v>43812</v>
       </c>
       <c r="B10" s="83">
-        <v>66188</v>
+        <v>24661</v>
       </c>
       <c r="C10" s="84">
-        <v>14097983</v>
+        <v>5180061</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>528</v>
+      <c r="A11" s="86">
+        <v>43838</v>
       </c>
       <c r="B11" s="83">
-        <v>119393</v>
+        <v>11272</v>
       </c>
       <c r="C11" s="84">
-        <v>13719587</v>
+        <v>1912510</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>534</v>
+      <c r="A12" s="86">
+        <v>43841</v>
       </c>
       <c r="B12" s="83">
-        <v>102864</v>
+        <v>11212</v>
       </c>
       <c r="C12" s="84">
-        <v>13382066</v>
+        <v>2323672</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>566</v>
+      <c r="A13" s="86">
+        <v>43843</v>
       </c>
       <c r="B13" s="83">
-        <v>153057</v>
+        <v>13023</v>
       </c>
       <c r="C13" s="84">
-        <v>13324365</v>
+        <v>2103662</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>535</v>
+      <c r="A14" s="86">
+        <v>43845</v>
       </c>
       <c r="B14" s="83">
-        <v>150888</v>
+        <v>12749</v>
       </c>
       <c r="C14" s="84">
-        <v>10822172</v>
+        <v>2254145</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>556</v>
+      <c r="A15" s="86">
+        <v>43847</v>
       </c>
       <c r="B15" s="83">
-        <v>70932</v>
+        <v>24763</v>
       </c>
       <c r="C15" s="84">
-        <v>8695752</v>
+        <v>5222838</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>567</v>
+      <c r="A16" s="86">
+        <v>43851</v>
       </c>
       <c r="B16" s="83">
-        <v>66188</v>
+        <v>13458</v>
       </c>
       <c r="C16" s="84">
-        <v>8426597</v>
+        <v>1785169</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>549</v>
+      <c r="A17" s="86">
+        <v>43860</v>
       </c>
       <c r="B17" s="83">
-        <v>50220</v>
+        <v>13643</v>
       </c>
       <c r="C17" s="84">
-        <v>8161554</v>
+        <v>2021746</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>561</v>
+      <c r="A18" s="86">
+        <v>43862</v>
       </c>
       <c r="B18" s="83">
-        <v>64489</v>
+        <v>11569</v>
       </c>
       <c r="C18" s="84">
-        <v>7643386</v>
+        <v>2127052</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>537</v>
+      <c r="A19" s="86">
+        <v>43864</v>
       </c>
       <c r="B19" s="83">
-        <v>55410</v>
+        <v>12834</v>
       </c>
       <c r="C19" s="84">
-        <v>7640841</v>
+        <v>2657817</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>579</v>
+      <c r="A20" s="86">
+        <v>43866</v>
       </c>
       <c r="B20" s="83">
-        <v>65005</v>
+        <v>11004</v>
       </c>
       <c r="C20" s="84">
-        <v>7543117</v>
+        <v>1619919</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>564</v>
+      <c r="A21" s="86">
+        <v>43868</v>
       </c>
       <c r="B21" s="83">
-        <v>87820</v>
+        <v>12833</v>
       </c>
       <c r="C21" s="84">
-        <v>6586430</v>
+        <v>2278207</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>527</v>
+      <c r="A22" s="86">
+        <v>43870</v>
       </c>
       <c r="B22" s="83">
-        <v>65936</v>
+        <v>11452</v>
       </c>
       <c r="C22" s="84">
-        <v>6457365</v>
+        <v>1609727</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>559</v>
+      <c r="A23" s="86">
+        <v>43872</v>
       </c>
       <c r="B23" s="83">
-        <v>24943</v>
+        <v>12436</v>
       </c>
       <c r="C23" s="84">
-        <v>6246914</v>
+        <v>2150963</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>555</v>
+      <c r="A24" s="86">
+        <v>43879</v>
       </c>
       <c r="B24" s="83">
-        <v>57809</v>
+        <v>28257</v>
       </c>
       <c r="C24" s="84">
-        <v>6155092</v>
+        <v>3665416</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>548</v>
+      <c r="A25" s="86">
+        <v>43883</v>
       </c>
       <c r="B25" s="83">
-        <v>35668</v>
+        <v>11252</v>
       </c>
       <c r="C25" s="84">
-        <v>6154739</v>
+        <v>2470305</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>546</v>
+      <c r="A26" s="86">
+        <v>43885</v>
       </c>
       <c r="B26" s="83">
-        <v>24953</v>
+        <v>11181</v>
       </c>
       <c r="C26" s="84">
-        <v>5794152</v>
+        <v>1591232</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>558</v>
+      <c r="A27" s="86">
+        <v>43887</v>
       </c>
       <c r="B27" s="83">
-        <v>16340</v>
+        <v>13289</v>
       </c>
       <c r="C27" s="84">
-        <v>5513651</v>
+        <v>2011920</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>525</v>
+      <c r="A28" s="86">
+        <v>43889</v>
       </c>
       <c r="B28" s="83">
-        <v>40442</v>
+        <v>25577</v>
       </c>
       <c r="C28" s="84">
-        <v>5499944</v>
+        <v>5115713</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>526</v>
+      <c r="A29" s="86">
+        <v>43893</v>
       </c>
       <c r="B29" s="83">
-        <v>68812</v>
+        <v>10672</v>
       </c>
       <c r="C29" s="84">
-        <v>4948244</v>
+        <v>1985445</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>565</v>
+      <c r="A30" s="86">
+        <v>43895</v>
       </c>
       <c r="B30" s="83">
-        <v>27391</v>
+        <v>12543</v>
       </c>
       <c r="C30" s="84">
-        <v>4822527</v>
+        <v>1875568</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>576</v>
+      <c r="A31" s="86">
+        <v>43897</v>
       </c>
       <c r="B31" s="83">
-        <v>76549</v>
+        <v>23629</v>
       </c>
       <c r="C31" s="84">
-        <v>4756625</v>
+        <v>4330802</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>581</v>
+        <v>538</v>
       </c>
       <c r="B32" s="83">
-        <v>19409</v>
+        <v>129632</v>
       </c>
       <c r="C32" s="84">
-        <v>4228894</v>
+        <v>33552653</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>547</v>
+      <c r="A33" s="86">
+        <v>43868</v>
       </c>
       <c r="B33" s="83">
-        <v>31556</v>
+        <v>39375</v>
       </c>
       <c r="C33" s="84">
-        <v>4175323</v>
+        <v>8871615</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>552</v>
+      <c r="A34" s="86">
+        <v>43875</v>
       </c>
       <c r="B34" s="83">
-        <v>22300</v>
+        <v>41058</v>
       </c>
       <c r="C34" s="84">
-        <v>3007085</v>
+        <v>10707033</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>554</v>
+      <c r="A35" s="86">
+        <v>43890</v>
       </c>
       <c r="B35" s="83">
-        <v>50886</v>
+        <v>25650</v>
       </c>
       <c r="C35" s="84">
-        <v>3002104</v>
+        <v>7453138</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>533</v>
+      <c r="A36" s="86">
+        <v>43896</v>
       </c>
       <c r="B36" s="83">
-        <v>24070</v>
+        <v>23549</v>
       </c>
       <c r="C36" s="84">
-        <v>2987569</v>
+        <v>6520867</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B37" s="83">
-        <v>31927</v>
+        <v>205495</v>
       </c>
       <c r="C37" s="84">
-        <v>2725143</v>
+        <v>29234706</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>557</v>
+      <c r="A38" s="86">
+        <v>43865</v>
       </c>
       <c r="B38" s="83">
-        <v>15616</v>
+        <v>14501</v>
       </c>
       <c r="C38" s="84">
-        <v>2526072</v>
+        <v>1926887</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>531</v>
+      <c r="A39" s="86">
+        <v>43866</v>
       </c>
       <c r="B39" s="83">
-        <v>62388</v>
+        <v>13406</v>
       </c>
       <c r="C39" s="84">
-        <v>2364492</v>
+        <v>1881241</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>519</v>
+      <c r="A40" s="86">
+        <v>43868</v>
       </c>
       <c r="B40" s="83">
-        <v>27857</v>
+        <v>13387</v>
       </c>
       <c r="C40" s="84">
-        <v>2184540</v>
+        <v>1920408</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>573</v>
+      <c r="A41" s="86">
+        <v>43870</v>
       </c>
       <c r="B41" s="83">
-        <v>23029</v>
+        <v>14030</v>
       </c>
       <c r="C41" s="84">
-        <v>2150047</v>
+        <v>2093697</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>539</v>
+      <c r="A42" s="86">
+        <v>43873</v>
       </c>
       <c r="B42" s="83">
-        <v>25915</v>
+        <v>10924</v>
       </c>
       <c r="C42" s="84">
-        <v>2138005</v>
+        <v>1625735</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>550</v>
+      <c r="A43" s="86">
+        <v>43879</v>
       </c>
       <c r="B43" s="83">
-        <v>15883</v>
+        <v>12821</v>
       </c>
       <c r="C43" s="84">
-        <v>2135250</v>
+        <v>1873212</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>572</v>
+      <c r="A44" s="86">
+        <v>43882</v>
       </c>
       <c r="B44" s="83">
-        <v>28861</v>
+        <v>14862</v>
       </c>
       <c r="C44" s="84">
-        <v>2123717</v>
+        <v>2225439</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>577</v>
+      <c r="A45" s="86">
+        <v>43883</v>
       </c>
       <c r="B45" s="83">
-        <v>15619</v>
+        <v>8767</v>
       </c>
       <c r="C45" s="84">
-        <v>1978866</v>
+        <v>1522300</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>569</v>
+      <c r="A46" s="86">
+        <v>43885</v>
       </c>
       <c r="B46" s="83">
-        <v>3667</v>
+        <v>14283</v>
       </c>
       <c r="C46" s="84">
-        <v>1943700</v>
+        <v>2173510</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>574</v>
+      <c r="A47" s="86">
+        <v>43890</v>
       </c>
       <c r="B47" s="83">
-        <v>46301</v>
+        <v>13231</v>
       </c>
       <c r="C47" s="84">
-        <v>1856352</v>
+        <v>1895616</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>575</v>
+      <c r="A48" s="86">
+        <v>43891</v>
       </c>
       <c r="B48" s="83">
-        <v>25986</v>
+        <v>14210</v>
       </c>
       <c r="C48" s="84">
-        <v>1820394</v>
+        <v>1656401</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>530</v>
+      <c r="A49" s="86">
+        <v>43893</v>
       </c>
       <c r="B49" s="83">
-        <v>16215</v>
+        <v>9482</v>
       </c>
       <c r="C49" s="84">
-        <v>1764616</v>
+        <v>1373714</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>580</v>
+      <c r="A50" s="86">
+        <v>43894</v>
       </c>
       <c r="B50" s="83">
-        <v>15024</v>
+        <v>13838</v>
       </c>
       <c r="C50" s="84">
-        <v>1709900</v>
+        <v>1884054</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>540</v>
+      <c r="A51" s="86">
+        <v>43896</v>
       </c>
       <c r="B51" s="83">
-        <v>31052</v>
+        <v>12737</v>
       </c>
       <c r="C51" s="84">
-        <v>1639228</v>
+        <v>1699381</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>523</v>
+      <c r="A52" s="86">
+        <v>43899</v>
       </c>
       <c r="B52" s="83">
-        <v>1263</v>
+        <v>11914</v>
       </c>
       <c r="C52" s="84">
-        <v>1617649</v>
+        <v>1629539</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>536</v>
+      <c r="A53" s="86">
+        <v>43902</v>
       </c>
       <c r="B53" s="83">
-        <v>25558</v>
+        <v>13102</v>
       </c>
       <c r="C53" s="84">
-        <v>1568041</v>
+        <v>1853572</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>562</v>
+        <v>520</v>
       </c>
       <c r="B54" s="83">
-        <v>10215</v>
+        <v>137614</v>
       </c>
       <c r="C54" s="84">
-        <v>1563837</v>
+        <v>25546717</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>529</v>
+      <c r="A55" s="86">
+        <v>43804</v>
       </c>
       <c r="B55" s="83">
-        <v>18850</v>
+        <v>13225</v>
       </c>
       <c r="C55" s="84">
-        <v>1447956</v>
+        <v>2667143</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>560</v>
+      <c r="A56" s="86">
+        <v>43806</v>
       </c>
       <c r="B56" s="83">
-        <v>14565</v>
+        <v>12241</v>
       </c>
       <c r="C56" s="84">
-        <v>1435061</v>
+        <v>2593407</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>571</v>
+      <c r="A57" s="86">
+        <v>43807</v>
       </c>
       <c r="B57" s="83">
-        <v>11754</v>
+        <v>10459</v>
       </c>
       <c r="C57" s="84">
-        <v>1416850</v>
+        <v>2135995</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>521</v>
+      <c r="A58" s="86">
+        <v>43810</v>
       </c>
       <c r="B58" s="83">
-        <v>11722</v>
+        <v>14137</v>
       </c>
       <c r="C58" s="84">
-        <v>1411818</v>
+        <v>2159747</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>551</v>
+      <c r="A59" s="86">
+        <v>43811</v>
       </c>
       <c r="B59" s="83">
-        <v>14161</v>
+        <v>12201</v>
       </c>
       <c r="C59" s="84">
-        <v>1383153</v>
+        <v>2265574</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>563</v>
+      <c r="A60" s="86">
+        <v>43814</v>
       </c>
       <c r="B60" s="83">
-        <v>12995</v>
+        <v>13288</v>
       </c>
       <c r="C60" s="84">
-        <v>1368366</v>
+        <v>2449082</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>578</v>
+      <c r="A61" s="86">
+        <v>43817</v>
       </c>
       <c r="B61" s="83">
-        <v>23419</v>
+        <v>28623</v>
       </c>
       <c r="C61" s="84">
-        <v>1361619</v>
+        <v>5385074</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>553</v>
+      <c r="A62" s="86">
+        <v>43874</v>
       </c>
       <c r="B62" s="83">
-        <v>10676</v>
+        <v>9577</v>
       </c>
       <c r="C62" s="84">
-        <v>1347500</v>
+        <v>1766289</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>543</v>
+      <c r="A63" s="86">
+        <v>43875</v>
       </c>
       <c r="B63" s="83">
-        <v>0</v>
+        <v>13931</v>
       </c>
       <c r="C63" s="84">
-        <v>80</v>
+        <v>2498351</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>544</v>
+      <c r="A64" s="86">
+        <v>43877</v>
       </c>
       <c r="B64" s="83">
-        <v>0</v>
+        <v>9932</v>
       </c>
       <c r="C64" s="84">
-        <v>71</v>
+        <v>1626055</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>524</v>
+      </c>
+      <c r="B65" s="83">
+        <v>135859</v>
+      </c>
+      <c r="C65" s="84">
+        <v>18603721</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="86">
+        <v>43866</v>
+      </c>
+      <c r="B66" s="83">
+        <v>52162</v>
+      </c>
+      <c r="C66" s="84">
+        <v>7131966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="86">
+        <v>43874</v>
+      </c>
+      <c r="B67" s="83">
+        <v>12296</v>
+      </c>
+      <c r="C67" s="84">
+        <v>1920593</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="86">
+        <v>43875</v>
+      </c>
+      <c r="B68" s="83">
+        <v>22734</v>
+      </c>
+      <c r="C68" s="84">
+        <v>3308230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="86">
+        <v>43891</v>
+      </c>
+      <c r="B69" s="83">
+        <v>22605</v>
+      </c>
+      <c r="C69" s="84">
+        <v>3022752</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="86">
+        <v>43893</v>
+      </c>
+      <c r="B70" s="83">
+        <v>26062</v>
+      </c>
+      <c r="C70" s="84">
+        <v>3220180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>522</v>
+      </c>
+      <c r="B71" s="83">
+        <v>113733</v>
+      </c>
+      <c r="C71" s="84">
+        <v>17035216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="86">
+        <v>43793</v>
+      </c>
+      <c r="B72" s="83">
+        <v>13756</v>
+      </c>
+      <c r="C72" s="84">
+        <v>2764402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="86">
+        <v>43794</v>
+      </c>
+      <c r="B73" s="83">
+        <v>13112</v>
+      </c>
+      <c r="C73" s="84">
+        <v>2707560</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="86">
+        <v>43808</v>
+      </c>
+      <c r="B74" s="83">
+        <v>13135</v>
+      </c>
+      <c r="C74" s="84">
+        <v>1643999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="86">
+        <v>43811</v>
+      </c>
+      <c r="B75" s="83">
+        <v>12705</v>
+      </c>
+      <c r="C75" s="84">
+        <v>1465817</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="86">
+        <v>43812</v>
+      </c>
+      <c r="B76" s="83">
+        <v>12225</v>
+      </c>
+      <c r="C76" s="84">
+        <v>1686682</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="86">
+        <v>43816</v>
+      </c>
+      <c r="B77" s="83">
+        <v>22990</v>
+      </c>
+      <c r="C77" s="84">
+        <v>3383378</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="86">
+        <v>43820</v>
+      </c>
+      <c r="B78" s="83">
+        <v>25810</v>
+      </c>
+      <c r="C78" s="84">
+        <v>3383378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>518</v>
+      </c>
+      <c r="B79" s="83">
+        <v>66188</v>
+      </c>
+      <c r="C79" s="84">
+        <v>14097983</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="86">
+        <v>43790</v>
+      </c>
+      <c r="B80" s="83">
+        <v>14350</v>
+      </c>
+      <c r="C80" s="84">
+        <v>3008795</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="86">
+        <v>43798</v>
+      </c>
+      <c r="B81" s="83">
+        <v>14744</v>
+      </c>
+      <c r="C81" s="84">
+        <v>3135350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="86">
+        <v>43859</v>
+      </c>
+      <c r="B82" s="83">
+        <v>37094</v>
+      </c>
+      <c r="C82" s="84">
+        <v>7953838</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>528</v>
+      </c>
+      <c r="B83" s="83">
+        <v>119393</v>
+      </c>
+      <c r="C83" s="84">
+        <v>13719587</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="86">
+        <v>43810</v>
+      </c>
+      <c r="B84" s="83">
+        <v>18462</v>
+      </c>
+      <c r="C84" s="84">
+        <v>2433563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="86">
+        <v>43855</v>
+      </c>
+      <c r="B85" s="83">
+        <v>18679</v>
+      </c>
+      <c r="C85" s="84">
+        <v>2564160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="86">
+        <v>43868</v>
+      </c>
+      <c r="B86" s="83">
+        <v>18378</v>
+      </c>
+      <c r="C86" s="84">
+        <v>2358301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="86">
+        <v>43881</v>
+      </c>
+      <c r="B87" s="83">
+        <v>18229</v>
+      </c>
+      <c r="C87" s="84">
+        <v>2418296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="86">
+        <v>43896</v>
+      </c>
+      <c r="B88" s="83">
+        <v>45645</v>
+      </c>
+      <c r="C88" s="84">
+        <v>3945267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>534</v>
+      </c>
+      <c r="B89" s="83">
+        <v>102864</v>
+      </c>
+      <c r="C89" s="84">
+        <v>13382066</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="86">
+        <v>43790</v>
+      </c>
+      <c r="B90" s="83">
+        <v>13115</v>
+      </c>
+      <c r="C90" s="84">
+        <v>1739513</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="86">
+        <v>43792</v>
+      </c>
+      <c r="B91" s="83">
+        <v>12936</v>
+      </c>
+      <c r="C91" s="84">
+        <v>1608662</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="86">
+        <v>43802</v>
+      </c>
+      <c r="B92" s="83">
+        <v>27495</v>
+      </c>
+      <c r="C92" s="84">
+        <v>3842660</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="86">
+        <v>43807</v>
+      </c>
+      <c r="B93" s="83">
+        <v>11511</v>
+      </c>
+      <c r="C93" s="84">
+        <v>1378938</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="86">
+        <v>43812</v>
+      </c>
+      <c r="B94" s="83">
+        <v>11829</v>
+      </c>
+      <c r="C94" s="84">
+        <v>1466665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="86">
+        <v>43816</v>
+      </c>
+      <c r="B95" s="83">
+        <v>12666</v>
+      </c>
+      <c r="C95" s="84">
+        <v>1535735</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="86">
+        <v>43818</v>
+      </c>
+      <c r="B96" s="83">
+        <v>13312</v>
+      </c>
+      <c r="C96" s="84">
+        <v>1809893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>566</v>
+      </c>
+      <c r="B97" s="83">
+        <v>153057</v>
+      </c>
+      <c r="C97" s="84">
+        <v>13324365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="86">
+        <v>43798</v>
+      </c>
+      <c r="B98" s="83">
+        <v>25163</v>
+      </c>
+      <c r="C98" s="84">
+        <v>2330166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="86">
+        <v>43800</v>
+      </c>
+      <c r="B99" s="83">
+        <v>15451</v>
+      </c>
+      <c r="C99" s="84">
+        <v>1492481</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="86">
+        <v>43805</v>
+      </c>
+      <c r="B100" s="83">
+        <v>36364</v>
+      </c>
+      <c r="C100" s="84">
+        <v>2788798</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="86">
+        <v>43827</v>
+      </c>
+      <c r="B101" s="83">
+        <v>76079</v>
+      </c>
+      <c r="C101" s="84">
+        <v>6712920</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>535</v>
+      </c>
+      <c r="B102" s="83">
+        <v>150888</v>
+      </c>
+      <c r="C102" s="84">
+        <v>10822172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="86">
+        <v>43804</v>
+      </c>
+      <c r="B103" s="83">
+        <v>95446</v>
+      </c>
+      <c r="C103" s="84">
+        <v>7045175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="86">
+        <v>43826</v>
+      </c>
+      <c r="B104" s="83">
+        <v>55442</v>
+      </c>
+      <c r="C104" s="84">
+        <v>3776997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>556</v>
+      </c>
+      <c r="B105" s="83">
+        <v>70932</v>
+      </c>
+      <c r="C105" s="84">
+        <v>8695752</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="86">
+        <v>43791</v>
+      </c>
+      <c r="B106" s="83">
+        <v>14409</v>
+      </c>
+      <c r="C106" s="84">
+        <v>2005591</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="86">
+        <v>43792</v>
+      </c>
+      <c r="B107" s="83">
+        <v>15167</v>
+      </c>
+      <c r="C107" s="84">
+        <v>2146529</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="86">
+        <v>43793</v>
+      </c>
+      <c r="B108" s="83">
+        <v>14961</v>
+      </c>
+      <c r="C108" s="84">
+        <v>1831948</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="86">
+        <v>43799</v>
+      </c>
+      <c r="B109" s="83">
+        <v>12289</v>
+      </c>
+      <c r="C109" s="84">
+        <v>1379531</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="86">
+        <v>43802</v>
+      </c>
+      <c r="B110" s="83">
+        <v>14106</v>
+      </c>
+      <c r="C110" s="84">
+        <v>1332153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>567</v>
+      </c>
+      <c r="B111" s="83">
+        <v>66188</v>
+      </c>
+      <c r="C111" s="84">
+        <v>8426597</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="86">
+        <v>43872</v>
+      </c>
+      <c r="B112" s="83">
+        <v>12776</v>
+      </c>
+      <c r="C112" s="84">
+        <v>1861282</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="86">
+        <v>43877</v>
+      </c>
+      <c r="B113" s="83">
+        <v>16115</v>
+      </c>
+      <c r="C113" s="84">
+        <v>1347055</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="86">
+        <v>43880</v>
+      </c>
+      <c r="B114" s="83">
+        <v>11374</v>
+      </c>
+      <c r="C114" s="84">
+        <v>1654145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="86">
+        <v>43888</v>
+      </c>
+      <c r="B115" s="83">
+        <v>14305</v>
+      </c>
+      <c r="C115" s="84">
+        <v>1982638</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="86">
+        <v>43900</v>
+      </c>
+      <c r="B116" s="83">
+        <v>11618</v>
+      </c>
+      <c r="C116" s="84">
+        <v>1581477</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>549</v>
+      </c>
+      <c r="B117" s="83">
+        <v>50220</v>
+      </c>
+      <c r="C117" s="84">
+        <v>8161554</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="86">
+        <v>43854</v>
+      </c>
+      <c r="B118" s="83">
+        <v>14442</v>
+      </c>
+      <c r="C118" s="84">
+        <v>2697988</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="86">
+        <v>43855</v>
+      </c>
+      <c r="B119" s="83">
+        <v>35778</v>
+      </c>
+      <c r="C119" s="84">
+        <v>5463566</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>561</v>
+      </c>
+      <c r="B120" s="83">
+        <v>64489</v>
+      </c>
+      <c r="C120" s="84">
+        <v>7643386</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="86">
+        <v>43791</v>
+      </c>
+      <c r="B121" s="83">
+        <v>25770</v>
+      </c>
+      <c r="C121" s="84">
+        <v>3276482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="86">
+        <v>43874</v>
+      </c>
+      <c r="B122" s="83">
+        <v>12824</v>
+      </c>
+      <c r="C122" s="84">
+        <v>1573895</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="86">
+        <v>43876</v>
+      </c>
+      <c r="B123" s="83">
+        <v>12898</v>
+      </c>
+      <c r="C123" s="84">
+        <v>1398101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="86">
+        <v>43882</v>
+      </c>
+      <c r="B124" s="83">
+        <v>12997</v>
+      </c>
+      <c r="C124" s="84">
+        <v>1394908</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>537</v>
+      </c>
+      <c r="B125" s="83">
+        <v>55410</v>
+      </c>
+      <c r="C125" s="84">
+        <v>7640841</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="86">
+        <v>43826</v>
+      </c>
+      <c r="B126" s="83">
+        <v>25166</v>
+      </c>
+      <c r="C126" s="84">
+        <v>3456199</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="86">
+        <v>43829</v>
+      </c>
+      <c r="B127" s="83">
+        <v>30244</v>
+      </c>
+      <c r="C127" s="84">
+        <v>4184642</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>579</v>
+      </c>
+      <c r="B128" s="83">
+        <v>65005</v>
+      </c>
+      <c r="C128" s="84">
+        <v>7543117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="86">
+        <v>43791</v>
+      </c>
+      <c r="B129" s="83">
+        <v>12980</v>
+      </c>
+      <c r="C129" s="84">
+        <v>1568358</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="86">
+        <v>43794</v>
+      </c>
+      <c r="B130" s="83">
+        <v>14150</v>
+      </c>
+      <c r="C130" s="84">
+        <v>1574120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="86">
+        <v>43852</v>
+      </c>
+      <c r="B131" s="83">
+        <v>12532</v>
+      </c>
+      <c r="C131" s="84">
+        <v>1471076</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="86">
+        <v>43859</v>
+      </c>
+      <c r="B132" s="83">
+        <v>12775</v>
+      </c>
+      <c r="C132" s="84">
+        <v>1473067</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="86">
+        <v>43862</v>
+      </c>
+      <c r="B133" s="83">
+        <v>12568</v>
+      </c>
+      <c r="C133" s="84">
+        <v>1456496</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>564</v>
+      </c>
+      <c r="B134" s="83">
+        <v>87820</v>
+      </c>
+      <c r="C134" s="84">
+        <v>6586430</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="86">
+        <v>43829</v>
+      </c>
+      <c r="B135" s="83">
+        <v>15437</v>
+      </c>
+      <c r="C135" s="84">
+        <v>2419966</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="86">
+        <v>43884</v>
+      </c>
+      <c r="B136" s="83">
+        <v>72383</v>
+      </c>
+      <c r="C136" s="84">
+        <v>4166464</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>527</v>
+      </c>
+      <c r="B137" s="83">
+        <v>65936</v>
+      </c>
+      <c r="C137" s="84">
+        <v>6457365</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="86">
+        <v>43793</v>
+      </c>
+      <c r="B138" s="83">
+        <v>16387</v>
+      </c>
+      <c r="C138" s="84">
+        <v>1499232</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="86">
+        <v>43798</v>
+      </c>
+      <c r="B139" s="83">
+        <v>17299</v>
+      </c>
+      <c r="C139" s="84">
+        <v>1710269</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="86">
+        <v>43800</v>
+      </c>
+      <c r="B140" s="83">
+        <v>15790</v>
+      </c>
+      <c r="C140" s="84">
+        <v>1554002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="86">
+        <v>43805</v>
+      </c>
+      <c r="B141" s="83">
+        <v>16460</v>
+      </c>
+      <c r="C141" s="84">
+        <v>1693862</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>559</v>
+      </c>
+      <c r="B142" s="83">
+        <v>24943</v>
+      </c>
+      <c r="C142" s="84">
+        <v>6246914</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="86">
+        <v>43806</v>
+      </c>
+      <c r="B143" s="83">
+        <v>11604</v>
+      </c>
+      <c r="C143" s="84">
+        <v>2519172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="86">
+        <v>43813</v>
+      </c>
+      <c r="B144" s="83">
+        <v>13339</v>
+      </c>
+      <c r="C144" s="84">
+        <v>3727742</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>555</v>
+      </c>
+      <c r="B145" s="83">
+        <v>57809</v>
+      </c>
+      <c r="C145" s="84">
+        <v>6155092</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="86">
+        <v>43798</v>
+      </c>
+      <c r="B146" s="83">
+        <v>13215</v>
+      </c>
+      <c r="C146" s="84">
+        <v>1662047</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="86">
+        <v>43805</v>
+      </c>
+      <c r="B147" s="83">
+        <v>15026</v>
+      </c>
+      <c r="C147" s="84">
+        <v>1683174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="86">
+        <v>43813</v>
+      </c>
+      <c r="B148" s="83">
+        <v>29568</v>
+      </c>
+      <c r="C148" s="84">
+        <v>2809871</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>548</v>
+      </c>
+      <c r="B149" s="83">
+        <v>35668</v>
+      </c>
+      <c r="C149" s="84">
+        <v>6154739</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="86">
+        <v>43805</v>
+      </c>
+      <c r="B150" s="83">
+        <v>35668</v>
+      </c>
+      <c r="C150" s="84">
+        <v>6154739</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>546</v>
+      </c>
+      <c r="B151" s="83">
+        <v>24953</v>
+      </c>
+      <c r="C151" s="84">
+        <v>5794152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="86">
+        <v>43791</v>
+      </c>
+      <c r="B152" s="83">
+        <v>24953</v>
+      </c>
+      <c r="C152" s="84">
+        <v>5794152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>558</v>
+      </c>
+      <c r="B153" s="83">
+        <v>16340</v>
+      </c>
+      <c r="C153" s="84">
+        <v>5513651</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="86">
+        <v>43827</v>
+      </c>
+      <c r="B154" s="83">
+        <v>16340</v>
+      </c>
+      <c r="C154" s="84">
+        <v>5513651</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>525</v>
+      </c>
+      <c r="B155" s="83">
+        <v>40442</v>
+      </c>
+      <c r="C155" s="84">
+        <v>5499944</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="86">
+        <v>43888</v>
+      </c>
+      <c r="B156" s="83">
+        <v>40442</v>
+      </c>
+      <c r="C156" s="84">
+        <v>5499944</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>526</v>
+      </c>
+      <c r="B157" s="83">
+        <v>68812</v>
+      </c>
+      <c r="C157" s="84">
+        <v>4948244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="86">
+        <v>43881</v>
+      </c>
+      <c r="B158" s="83">
+        <v>43370</v>
+      </c>
+      <c r="C158" s="84">
+        <v>3546388</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="86">
+        <v>43885</v>
+      </c>
+      <c r="B159" s="83">
+        <v>25442</v>
+      </c>
+      <c r="C159" s="84">
+        <v>1401856</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>565</v>
+      </c>
+      <c r="B160" s="83">
+        <v>27391</v>
+      </c>
+      <c r="C160" s="84">
+        <v>4822527</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="86">
+        <v>43869</v>
+      </c>
+      <c r="B161" s="83">
+        <v>14750</v>
+      </c>
+      <c r="C161" s="84">
+        <v>2737645</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="86">
+        <v>43876</v>
+      </c>
+      <c r="B162" s="83">
+        <v>12641</v>
+      </c>
+      <c r="C162" s="84">
+        <v>2084882</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>576</v>
+      </c>
+      <c r="B163" s="83">
+        <v>76549</v>
+      </c>
+      <c r="C163" s="84">
+        <v>4756625</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="86">
+        <v>43874</v>
+      </c>
+      <c r="B164" s="83">
+        <v>26232</v>
+      </c>
+      <c r="C164" s="84">
+        <v>1581252</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="86">
+        <v>43882</v>
+      </c>
+      <c r="B165" s="83">
+        <v>24239</v>
+      </c>
+      <c r="C165" s="84">
+        <v>1651922</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="86">
+        <v>43893</v>
+      </c>
+      <c r="B166" s="83">
+        <v>26078</v>
+      </c>
+      <c r="C166" s="84">
+        <v>1523451</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>581</v>
+      </c>
+      <c r="B167" s="83">
+        <v>19409</v>
+      </c>
+      <c r="C167" s="84">
+        <v>4228894</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="86">
+        <v>43861</v>
+      </c>
+      <c r="B168" s="83">
+        <v>7528</v>
+      </c>
+      <c r="C168" s="84">
+        <v>1656701</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="86">
+        <v>43866</v>
+      </c>
+      <c r="B169" s="83">
+        <v>11881</v>
+      </c>
+      <c r="C169" s="84">
+        <v>2572193</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>547</v>
+      </c>
+      <c r="B170" s="83">
+        <v>31556</v>
+      </c>
+      <c r="C170" s="84">
+        <v>4175323</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="86">
+        <v>43861</v>
+      </c>
+      <c r="B171" s="83">
+        <v>31556</v>
+      </c>
+      <c r="C171" s="84">
+        <v>4175323</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>552</v>
+      </c>
+      <c r="B172" s="83">
+        <v>22300</v>
+      </c>
+      <c r="C172" s="84">
+        <v>3007085</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="86">
+        <v>43840</v>
+      </c>
+      <c r="B173" s="83">
+        <v>11144</v>
+      </c>
+      <c r="C173" s="84">
+        <v>1496668</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="86">
+        <v>43868</v>
+      </c>
+      <c r="B174" s="83">
+        <v>11156</v>
+      </c>
+      <c r="C174" s="84">
+        <v>1510417</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>554</v>
+      </c>
+      <c r="B175" s="83">
+        <v>50886</v>
+      </c>
+      <c r="C175" s="84">
+        <v>3002104</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="86">
+        <v>43874</v>
+      </c>
+      <c r="B176" s="83">
+        <v>25085</v>
+      </c>
+      <c r="C176" s="84">
+        <v>1519858</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="86">
+        <v>43882</v>
+      </c>
+      <c r="B177" s="83">
+        <v>25801</v>
+      </c>
+      <c r="C177" s="84">
+        <v>1482246</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>533</v>
+      </c>
+      <c r="B178" s="83">
+        <v>24070</v>
+      </c>
+      <c r="C178" s="84">
+        <v>2987569</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="86">
+        <v>43805</v>
+      </c>
+      <c r="B179" s="83">
+        <v>12430</v>
+      </c>
+      <c r="C179" s="84">
+        <v>1469074</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="86">
+        <v>43814</v>
+      </c>
+      <c r="B180" s="83">
+        <v>11640</v>
+      </c>
+      <c r="C180" s="84">
+        <v>1518495</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>570</v>
+      </c>
+      <c r="B181" s="83">
+        <v>31927</v>
+      </c>
+      <c r="C181" s="84">
+        <v>2725143</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="86">
+        <v>43868</v>
+      </c>
+      <c r="B182" s="83">
+        <v>31927</v>
+      </c>
+      <c r="C182" s="84">
+        <v>2725143</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>557</v>
+      </c>
+      <c r="B183" s="83">
+        <v>15616</v>
+      </c>
+      <c r="C183" s="84">
+        <v>2526072</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="86">
+        <v>43826</v>
+      </c>
+      <c r="B184" s="83">
+        <v>15616</v>
+      </c>
+      <c r="C184" s="84">
+        <v>2526072</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>531</v>
+      </c>
+      <c r="B185" s="83">
+        <v>62388</v>
+      </c>
+      <c r="C185" s="84">
+        <v>2364492</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="86">
+        <v>43806</v>
+      </c>
+      <c r="B186" s="83">
+        <v>62388</v>
+      </c>
+      <c r="C186" s="84">
+        <v>2364492</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>519</v>
+      </c>
+      <c r="B187" s="83">
+        <v>27857</v>
+      </c>
+      <c r="C187" s="84">
+        <v>2184540</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="86">
+        <v>43882</v>
+      </c>
+      <c r="B188" s="83">
+        <v>27857</v>
+      </c>
+      <c r="C188" s="84">
+        <v>2184540</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>573</v>
+      </c>
+      <c r="B189" s="83">
+        <v>23029</v>
+      </c>
+      <c r="C189" s="84">
+        <v>2150047</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="86">
+        <v>43798</v>
+      </c>
+      <c r="B190" s="83">
+        <v>23029</v>
+      </c>
+      <c r="C190" s="84">
+        <v>2150047</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>539</v>
+      </c>
+      <c r="B191" s="83">
+        <v>25915</v>
+      </c>
+      <c r="C191" s="84">
+        <v>2138005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="86">
+        <v>43791</v>
+      </c>
+      <c r="B192" s="83">
+        <v>25915</v>
+      </c>
+      <c r="C192" s="84">
+        <v>2138005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>550</v>
+      </c>
+      <c r="B193" s="83">
+        <v>15883</v>
+      </c>
+      <c r="C193" s="84">
+        <v>2135250</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="86">
+        <v>43805</v>
+      </c>
+      <c r="B194" s="83">
+        <v>15883</v>
+      </c>
+      <c r="C194" s="84">
+        <v>2135250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>572</v>
+      </c>
+      <c r="B195" s="83">
+        <v>28861</v>
+      </c>
+      <c r="C195" s="84">
+        <v>2123717</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="86">
+        <v>43819</v>
+      </c>
+      <c r="B196" s="83">
+        <v>28861</v>
+      </c>
+      <c r="C196" s="84">
+        <v>2123717</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>577</v>
+      </c>
+      <c r="B197" s="83">
+        <v>15619</v>
+      </c>
+      <c r="C197" s="84">
+        <v>1978866</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="86">
+        <v>43830</v>
+      </c>
+      <c r="B198" s="83">
+        <v>15619</v>
+      </c>
+      <c r="C198" s="84">
+        <v>1978866</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>569</v>
+      </c>
+      <c r="B199" s="83">
+        <v>3667</v>
+      </c>
+      <c r="C199" s="84">
+        <v>1943700</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="86">
+        <v>43839</v>
+      </c>
+      <c r="B200" s="83">
+        <v>3667</v>
+      </c>
+      <c r="C200" s="84">
+        <v>1943700</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>574</v>
+      </c>
+      <c r="B201" s="83">
+        <v>46301</v>
+      </c>
+      <c r="C201" s="84">
+        <v>1856352</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="86">
+        <v>43902</v>
+      </c>
+      <c r="B202" s="83">
+        <v>46301</v>
+      </c>
+      <c r="C202" s="84">
+        <v>1856352</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>575</v>
+      </c>
+      <c r="B203" s="83">
+        <v>25986</v>
+      </c>
+      <c r="C203" s="84">
+        <v>1820394</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="86">
+        <v>43900</v>
+      </c>
+      <c r="B204" s="83">
+        <v>25986</v>
+      </c>
+      <c r="C204" s="84">
+        <v>1820394</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>530</v>
+      </c>
+      <c r="B205" s="83">
+        <v>16215</v>
+      </c>
+      <c r="C205" s="84">
+        <v>1764616</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="86">
+        <v>43792</v>
+      </c>
+      <c r="B206" s="83">
+        <v>16215</v>
+      </c>
+      <c r="C206" s="84">
+        <v>1764616</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>580</v>
+      </c>
+      <c r="B207" s="83">
+        <v>15024</v>
+      </c>
+      <c r="C207" s="84">
+        <v>1709900</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="86">
+        <v>43847</v>
+      </c>
+      <c r="B208" s="83">
+        <v>15024</v>
+      </c>
+      <c r="C208" s="84">
+        <v>1709900</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>540</v>
+      </c>
+      <c r="B209" s="83">
+        <v>31052</v>
+      </c>
+      <c r="C209" s="84">
+        <v>1639228</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="86">
+        <v>43861</v>
+      </c>
+      <c r="B210" s="83">
+        <v>31052</v>
+      </c>
+      <c r="C210" s="84">
+        <v>1639228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>523</v>
+      </c>
+      <c r="B211" s="83">
+        <v>1263</v>
+      </c>
+      <c r="C211" s="84">
+        <v>1617649</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="86">
+        <v>43791</v>
+      </c>
+      <c r="B212" s="83">
+        <v>1263</v>
+      </c>
+      <c r="C212" s="84">
+        <v>1617649</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>536</v>
+      </c>
+      <c r="B213" s="83">
+        <v>25558</v>
+      </c>
+      <c r="C213" s="84">
+        <v>1568041</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="86">
+        <v>43896</v>
+      </c>
+      <c r="B214" s="83">
+        <v>25558</v>
+      </c>
+      <c r="C214" s="84">
+        <v>1568041</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>562</v>
+      </c>
+      <c r="B215" s="83">
+        <v>10215</v>
+      </c>
+      <c r="C215" s="84">
+        <v>1563837</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="86">
+        <v>43796</v>
+      </c>
+      <c r="B216" s="83">
+        <v>10215</v>
+      </c>
+      <c r="C216" s="84">
+        <v>1563837</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>529</v>
+      </c>
+      <c r="B217" s="83">
+        <v>18850</v>
+      </c>
+      <c r="C217" s="84">
+        <v>1447956</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="86">
+        <v>43875</v>
+      </c>
+      <c r="B218" s="83">
+        <v>18850</v>
+      </c>
+      <c r="C218" s="84">
+        <v>1447956</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>560</v>
+      </c>
+      <c r="B219" s="83">
+        <v>14565</v>
+      </c>
+      <c r="C219" s="84">
+        <v>1435061</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="86">
+        <v>43799</v>
+      </c>
+      <c r="B220" s="83">
+        <v>14565</v>
+      </c>
+      <c r="C220" s="84">
+        <v>1435061</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>571</v>
+      </c>
+      <c r="B221" s="83">
+        <v>11754</v>
+      </c>
+      <c r="C221" s="84">
+        <v>1416850</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="86">
+        <v>43810</v>
+      </c>
+      <c r="B222" s="83">
+        <v>11754</v>
+      </c>
+      <c r="C222" s="84">
+        <v>1416850</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>521</v>
+      </c>
+      <c r="B223" s="83">
+        <v>11722</v>
+      </c>
+      <c r="C223" s="84">
+        <v>1411818</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="86">
+        <v>43796</v>
+      </c>
+      <c r="B224" s="83">
+        <v>11722</v>
+      </c>
+      <c r="C224" s="84">
+        <v>1411818</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>551</v>
+      </c>
+      <c r="B225" s="83">
+        <v>14161</v>
+      </c>
+      <c r="C225" s="84">
+        <v>1383153</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="86">
+        <v>43812</v>
+      </c>
+      <c r="B226" s="83">
+        <v>14161</v>
+      </c>
+      <c r="C226" s="84">
+        <v>1383153</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>563</v>
+      </c>
+      <c r="B227" s="83">
+        <v>12995</v>
+      </c>
+      <c r="C227" s="84">
+        <v>1368366</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="86">
+        <v>43814</v>
+      </c>
+      <c r="B228" s="83">
+        <v>12995</v>
+      </c>
+      <c r="C228" s="84">
+        <v>1368366</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>578</v>
+      </c>
+      <c r="B229" s="83">
+        <v>23419</v>
+      </c>
+      <c r="C229" s="84">
+        <v>1361619</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="86">
+        <v>43875</v>
+      </c>
+      <c r="B230" s="83">
+        <v>23419</v>
+      </c>
+      <c r="C230" s="84">
+        <v>1361619</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>553</v>
+      </c>
+      <c r="B231" s="83">
+        <v>10676</v>
+      </c>
+      <c r="C231" s="84">
+        <v>1347500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="86">
+        <v>43790</v>
+      </c>
+      <c r="B232" s="83">
+        <v>10676</v>
+      </c>
+      <c r="C232" s="84">
+        <v>1347500</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>543</v>
+      </c>
+      <c r="B233" s="83">
+        <v>0</v>
+      </c>
+      <c r="C233" s="84">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="87" t="s">
+        <v>585</v>
+      </c>
+      <c r="B234" s="83">
+        <v>0</v>
+      </c>
+      <c r="C234" s="84">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>544</v>
+      </c>
+      <c r="B235" s="83">
+        <v>0</v>
+      </c>
+      <c r="C235" s="84">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="87" t="s">
+        <v>586</v>
+      </c>
+      <c r="B236" s="83">
+        <v>0</v>
+      </c>
+      <c r="C236" s="84">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
         <v>545</v>
       </c>
-      <c r="B65" s="83">
+      <c r="B237" s="83">
         <v>0</v>
       </c>
-      <c r="C65" s="84">
+      <c r="C237" s="84">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+    <row r="238" spans="1:3">
+      <c r="A238" s="87" t="s">
+        <v>587</v>
+      </c>
+      <c r="B238" s="83">
+        <v>0</v>
+      </c>
+      <c r="C238" s="84">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
         <v>542</v>
       </c>
-      <c r="B66" s="83">
+      <c r="B239" s="83">
         <v>0</v>
       </c>
-      <c r="C66" s="84">
+      <c r="C239" s="84">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+    <row r="240" spans="1:3">
+      <c r="A240" s="87" t="s">
+        <v>588</v>
+      </c>
+      <c r="B240" s="83">
+        <v>0</v>
+      </c>
+      <c r="C240" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
         <v>541</v>
       </c>
-      <c r="B67" s="83">
+      <c r="B241" s="83">
         <v>0</v>
       </c>
-      <c r="C67" s="84">
+      <c r="C241" s="84">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+    <row r="242" spans="1:3">
+      <c r="A242" s="87" t="s">
+        <v>589</v>
+      </c>
+      <c r="B242" s="83">
+        <v>0</v>
+      </c>
+      <c r="C242" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
         <v>582</v>
       </c>
-      <c r="B68" s="83">
+      <c r="B243" s="83">
         <v>3310776</v>
       </c>
-      <c r="C68" s="84">
+      <c r="C243" s="84">
         <v>435959956</v>
       </c>
     </row>
@@ -17040,11 +19853,779 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C3B4C7-4514-7F43-B95A-6511DC75EED1}">
+  <dimension ref="A1:C68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="44.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="89" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="88" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" s="90">
+        <v>408407</v>
+      </c>
+      <c r="C2" s="91">
+        <v>71210497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="86">
+        <v>43800</v>
+      </c>
+      <c r="B3" s="83">
+        <v>13685</v>
+      </c>
+      <c r="C3" s="84">
+        <v>2870852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="86">
+        <v>43802</v>
+      </c>
+      <c r="B4" s="83">
+        <v>11633</v>
+      </c>
+      <c r="C4" s="84">
+        <v>1630450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="86">
+        <v>43804</v>
+      </c>
+      <c r="B5" s="83">
+        <v>12462</v>
+      </c>
+      <c r="C5" s="84">
+        <v>1746480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="86">
+        <v>43806</v>
+      </c>
+      <c r="B6" s="83">
+        <v>10487</v>
+      </c>
+      <c r="C6" s="84">
+        <v>1816438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="86">
+        <v>43808</v>
+      </c>
+      <c r="B7" s="83">
+        <v>26831</v>
+      </c>
+      <c r="C7" s="84">
+        <v>4852388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="86">
+        <v>43812</v>
+      </c>
+      <c r="B8" s="83">
+        <v>24661</v>
+      </c>
+      <c r="C8" s="84">
+        <v>5180061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="86">
+        <v>43838</v>
+      </c>
+      <c r="B9" s="83">
+        <v>11272</v>
+      </c>
+      <c r="C9" s="84">
+        <v>1912510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="86">
+        <v>43841</v>
+      </c>
+      <c r="B10" s="83">
+        <v>11212</v>
+      </c>
+      <c r="C10" s="84">
+        <v>2323672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="86">
+        <v>43843</v>
+      </c>
+      <c r="B11" s="83">
+        <v>13023</v>
+      </c>
+      <c r="C11" s="84">
+        <v>2103662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="86">
+        <v>43845</v>
+      </c>
+      <c r="B12" s="83">
+        <v>12749</v>
+      </c>
+      <c r="C12" s="84">
+        <v>2254145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="86">
+        <v>43847</v>
+      </c>
+      <c r="B13" s="83">
+        <v>24763</v>
+      </c>
+      <c r="C13" s="84">
+        <v>5222838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="86">
+        <v>43851</v>
+      </c>
+      <c r="B14" s="83">
+        <v>13458</v>
+      </c>
+      <c r="C14" s="84">
+        <v>1785169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="86">
+        <v>43860</v>
+      </c>
+      <c r="B15" s="83">
+        <v>13643</v>
+      </c>
+      <c r="C15" s="84">
+        <v>2021746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="86">
+        <v>43862</v>
+      </c>
+      <c r="B16" s="83">
+        <v>11569</v>
+      </c>
+      <c r="C16" s="84">
+        <v>2127052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="86">
+        <v>43864</v>
+      </c>
+      <c r="B17" s="83">
+        <v>12834</v>
+      </c>
+      <c r="C17" s="84">
+        <v>2657817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="86">
+        <v>43866</v>
+      </c>
+      <c r="B18" s="83">
+        <v>11004</v>
+      </c>
+      <c r="C18" s="84">
+        <v>1619919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="86">
+        <v>43868</v>
+      </c>
+      <c r="B19" s="83">
+        <v>12833</v>
+      </c>
+      <c r="C19" s="84">
+        <v>2278207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="86">
+        <v>43870</v>
+      </c>
+      <c r="B20" s="83">
+        <v>11452</v>
+      </c>
+      <c r="C20" s="84">
+        <v>1609727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="86">
+        <v>43872</v>
+      </c>
+      <c r="B21" s="83">
+        <v>12436</v>
+      </c>
+      <c r="C21" s="84">
+        <v>2150963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="86">
+        <v>43879</v>
+      </c>
+      <c r="B22" s="83">
+        <v>28257</v>
+      </c>
+      <c r="C22" s="84">
+        <v>3665416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="86">
+        <v>43883</v>
+      </c>
+      <c r="B23" s="83">
+        <v>11252</v>
+      </c>
+      <c r="C23" s="84">
+        <v>2470305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="86">
+        <v>43885</v>
+      </c>
+      <c r="B24" s="83">
+        <v>11181</v>
+      </c>
+      <c r="C24" s="84">
+        <v>1591232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="86">
+        <v>43887</v>
+      </c>
+      <c r="B25" s="83">
+        <v>13289</v>
+      </c>
+      <c r="C25" s="84">
+        <v>2011920</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="86">
+        <v>43889</v>
+      </c>
+      <c r="B26" s="83">
+        <v>25577</v>
+      </c>
+      <c r="C26" s="84">
+        <v>5115713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="86">
+        <v>43893</v>
+      </c>
+      <c r="B27" s="83">
+        <v>10672</v>
+      </c>
+      <c r="C27" s="84">
+        <v>1985445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="86">
+        <v>43895</v>
+      </c>
+      <c r="B28" s="83">
+        <v>12543</v>
+      </c>
+      <c r="C28" s="84">
+        <v>1875568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="86">
+        <v>43897</v>
+      </c>
+      <c r="B29" s="83">
+        <v>23629</v>
+      </c>
+      <c r="C29" s="84">
+        <v>4330802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="B30" s="90">
+        <v>129632</v>
+      </c>
+      <c r="C30" s="91">
+        <v>33552653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="86">
+        <v>43868</v>
+      </c>
+      <c r="B31" s="83">
+        <v>39375</v>
+      </c>
+      <c r="C31" s="84">
+        <v>8871615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="86">
+        <v>43875</v>
+      </c>
+      <c r="B32" s="83">
+        <v>41058</v>
+      </c>
+      <c r="C32" s="84">
+        <v>10707033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="86">
+        <v>43890</v>
+      </c>
+      <c r="B33" s="83">
+        <v>25650</v>
+      </c>
+      <c r="C33" s="84">
+        <v>7453138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="86">
+        <v>43896</v>
+      </c>
+      <c r="B34" s="83">
+        <v>23549</v>
+      </c>
+      <c r="C34" s="84">
+        <v>6520867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="88" t="s">
+        <v>568</v>
+      </c>
+      <c r="B35" s="90">
+        <v>205495</v>
+      </c>
+      <c r="C35" s="91">
+        <v>29234706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="86">
+        <v>43865</v>
+      </c>
+      <c r="B36" s="83">
+        <v>14501</v>
+      </c>
+      <c r="C36" s="84">
+        <v>1926887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="86">
+        <v>43866</v>
+      </c>
+      <c r="B37" s="83">
+        <v>13406</v>
+      </c>
+      <c r="C37" s="84">
+        <v>1881241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="86">
+        <v>43868</v>
+      </c>
+      <c r="B38" s="83">
+        <v>13387</v>
+      </c>
+      <c r="C38" s="84">
+        <v>1920408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="86">
+        <v>43870</v>
+      </c>
+      <c r="B39" s="83">
+        <v>14030</v>
+      </c>
+      <c r="C39" s="84">
+        <v>2093697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="86">
+        <v>43873</v>
+      </c>
+      <c r="B40" s="83">
+        <v>10924</v>
+      </c>
+      <c r="C40" s="84">
+        <v>1625735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="86">
+        <v>43879</v>
+      </c>
+      <c r="B41" s="83">
+        <v>12821</v>
+      </c>
+      <c r="C41" s="84">
+        <v>1873212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="86">
+        <v>43882</v>
+      </c>
+      <c r="B42" s="83">
+        <v>14862</v>
+      </c>
+      <c r="C42" s="84">
+        <v>2225439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="86">
+        <v>43883</v>
+      </c>
+      <c r="B43" s="83">
+        <v>8767</v>
+      </c>
+      <c r="C43" s="84">
+        <v>1522300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="86">
+        <v>43885</v>
+      </c>
+      <c r="B44" s="83">
+        <v>14283</v>
+      </c>
+      <c r="C44" s="84">
+        <v>2173510</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="86">
+        <v>43890</v>
+      </c>
+      <c r="B45" s="83">
+        <v>13231</v>
+      </c>
+      <c r="C45" s="84">
+        <v>1895616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="86">
+        <v>43891</v>
+      </c>
+      <c r="B46" s="83">
+        <v>14210</v>
+      </c>
+      <c r="C46" s="84">
+        <v>1656401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="86">
+        <v>43893</v>
+      </c>
+      <c r="B47" s="83">
+        <v>9482</v>
+      </c>
+      <c r="C47" s="84">
+        <v>1373714</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="86">
+        <v>43894</v>
+      </c>
+      <c r="B48" s="83">
+        <v>13838</v>
+      </c>
+      <c r="C48" s="84">
+        <v>1884054</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="86">
+        <v>43896</v>
+      </c>
+      <c r="B49" s="83">
+        <v>12737</v>
+      </c>
+      <c r="C49" s="84">
+        <v>1699381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="86">
+        <v>43899</v>
+      </c>
+      <c r="B50" s="83">
+        <v>11914</v>
+      </c>
+      <c r="C50" s="84">
+        <v>1629539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="86">
+        <v>43902</v>
+      </c>
+      <c r="B51" s="83">
+        <v>13102</v>
+      </c>
+      <c r="C51" s="84">
+        <v>1853572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="88" t="s">
+        <v>520</v>
+      </c>
+      <c r="B52" s="90">
+        <v>137614</v>
+      </c>
+      <c r="C52" s="91">
+        <v>25546717</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="86">
+        <v>43804</v>
+      </c>
+      <c r="B53" s="83">
+        <v>13225</v>
+      </c>
+      <c r="C53" s="84">
+        <v>2667143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="86">
+        <v>43806</v>
+      </c>
+      <c r="B54" s="83">
+        <v>12241</v>
+      </c>
+      <c r="C54" s="84">
+        <v>2593407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="86">
+        <v>43807</v>
+      </c>
+      <c r="B55" s="83">
+        <v>10459</v>
+      </c>
+      <c r="C55" s="84">
+        <v>2135995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="86">
+        <v>43810</v>
+      </c>
+      <c r="B56" s="83">
+        <v>14137</v>
+      </c>
+      <c r="C56" s="84">
+        <v>2159747</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="86">
+        <v>43811</v>
+      </c>
+      <c r="B57" s="83">
+        <v>12201</v>
+      </c>
+      <c r="C57" s="84">
+        <v>2265574</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="86">
+        <v>43814</v>
+      </c>
+      <c r="B58" s="83">
+        <v>13288</v>
+      </c>
+      <c r="C58" s="84">
+        <v>2449082</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="86">
+        <v>43817</v>
+      </c>
+      <c r="B59" s="83">
+        <v>28623</v>
+      </c>
+      <c r="C59" s="84">
+        <v>5385074</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="86">
+        <v>43874</v>
+      </c>
+      <c r="B60" s="83">
+        <v>9577</v>
+      </c>
+      <c r="C60" s="84">
+        <v>1766289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="86">
+        <v>43875</v>
+      </c>
+      <c r="B61" s="83">
+        <v>13931</v>
+      </c>
+      <c r="C61" s="84">
+        <v>2498351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="86">
+        <v>43877</v>
+      </c>
+      <c r="B62" s="83">
+        <v>9932</v>
+      </c>
+      <c r="C62" s="84">
+        <v>1626055</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="B63" s="90">
+        <v>135859</v>
+      </c>
+      <c r="C63" s="91">
+        <v>18603721</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="86">
+        <v>43866</v>
+      </c>
+      <c r="B64" s="83">
+        <v>52162</v>
+      </c>
+      <c r="C64" s="84">
+        <v>7131966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="86">
+        <v>43874</v>
+      </c>
+      <c r="B65" s="83">
+        <v>12296</v>
+      </c>
+      <c r="C65" s="84">
+        <v>1920593</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="86">
+        <v>43875</v>
+      </c>
+      <c r="B66" s="83">
+        <v>22734</v>
+      </c>
+      <c r="C66" s="84">
+        <v>3308230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="86">
+        <v>43891</v>
+      </c>
+      <c r="B67" s="83">
+        <v>22605</v>
+      </c>
+      <c r="C67" s="84">
+        <v>3022752</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="86">
+        <v>43893</v>
+      </c>
+      <c r="B68" s="83">
+        <v>26062</v>
+      </c>
+      <c r="C68" s="84">
+        <v>3220180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D420"/>
   <sheetViews>
     <sheetView topLeftCell="A400" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="A400" sqref="A1:XFD1048576"/>
+      <selection activeCell="N414" sqref="M414:N414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
